--- a/BackTest/2020-01-16 BackTest CON.xlsx
+++ b/BackTest/2020-01-16 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1870,7 +1870,7 @@
         <v>-1613968.8964</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-1531894.3655</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-1558927.5755</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3608601.3413</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3586313.961300001</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3660905.5963</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3614348.4013</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3675423.4313</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3598841.3513</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3567302.6063</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3492210.3563</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3492210.3563</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3808782.452</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3753214.187</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3750092.1462</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3750092.1462</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3544205.4772</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3338912.963199999</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3383467.698199999</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3438722.801999999</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3378649.001999999</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3329588.731999999</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3376646.541999999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3433291.864499999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3449812.1595</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3334170.0945</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3386550.4435</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3312960.0385</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3185303.2135</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3112213.4235</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3171285.993499999</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3146313.506199999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3192370.086199999</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2722234.119287629</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2646140.639287629</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2539509.644287629</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2606592.054287629</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2542012.719287629</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2486444.454287629</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2546017.639287629</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2599082.829287629</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2737753.184287629</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2673346.764287629</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2928352.164087629</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2872283.284087629</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2821721.169087629</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3037547.151287629</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3002003.486287629</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3082023.605887629</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-3574251.414787629</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3387718.131787629</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-3154916.381187629</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3146506.54118763</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3265152.296187629</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3492752.299587629</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3452703.099587629</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-3388624.379587629</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-3353881.944587629</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-3390927.454587629</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-3347001.737587628</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-3371031.257587628</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-3558761.882587628</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-3501191.157587628</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-3566771.722587628</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-3464646.262587628</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-3753265.995787628</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-3709211.875787628</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-3769786.290787628</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-3843877.310787628</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-3769285.675787629</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-3722728.480787629</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-3661653.450787629</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-3737746.930787629</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3706208.185787629</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5143475.874387628</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-5078896.539387628</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-4825077.603487629</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-4720054.578487628</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4773620.383487628</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-4741080.408487628</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-4804658.513487629</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-4766111.158487629</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-4426509.083187629</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-4496094.56818763</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-4544654.22318763</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-4511613.63318763</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-4733184.70538763</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-4765224.06538763</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-4606529.11038763</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-4648277.08038763</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-4647277.08038763</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-4852745.60668763</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-4840608.13168763</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-4876151.79668763</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-4912696.69168763</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-4869143.18668763</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-4798556.47168763</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-4796433.21498763</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-4707841.341287631</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-5238597.596287631</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-6308001.191787631</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-6381090.981787631</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-6506039.529687631</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-8020004.277687631</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-7924646.376987631</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11275,7 +11275,7 @@
         <v>-8924484.41998763</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -11341,7 +11341,7 @@
         <v>-10179604.86758763</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -11374,7 +11374,7 @@
         <v>-10112021.84258763</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -11407,7 +11407,7 @@
         <v>-10020909.91258763</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-9754739.68558763</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-9785477.20058763</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-9819018.40558763</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-9784475.97058763</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-9915681.210187631</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-10030520.14648763</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-10801842.74608763</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-10922718.99508763</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-10921850.57638763</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-11000447.13138763</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-10920148.73138763</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-11028281.57138763</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -11836,7 +11836,7 @@
         <v>-11027691.29558763</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
       <c r="J347" t="inlineStr"/>
@@ -11869,7 +11869,7 @@
         <v>-11027691.29558763</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
       <c r="J348" t="inlineStr"/>
@@ -11902,7 +11902,7 @@
         <v>-11027691.29558763</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
       <c r="J349" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-11027841.29558763</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-11027841.29558763</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-11027841.29558763</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -21802,14 +21802,10 @@
         <v>-43602502.24161015</v>
       </c>
       <c r="H649" t="n">
-        <v>1</v>
-      </c>
-      <c r="I649" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="J649" t="n">
-        <v>3.03</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
+      <c r="J649" t="inlineStr"/>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
@@ -21839,2332 +21835,2006 @@
         <v>-43612502.24161015</v>
       </c>
       <c r="H650" t="n">
-        <v>1</v>
-      </c>
-      <c r="I650" t="n">
-        <v>3.044</v>
-      </c>
-      <c r="J650" t="n">
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
+      <c r="L650" t="n">
+        <v>1</v>
+      </c>
+      <c r="M650" t="inlineStr"/>
+    </row>
+    <row r="651">
+      <c r="A651" s="1" t="n">
+        <v>649</v>
+      </c>
+      <c r="B651" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="C651" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="D651" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="E651" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="F651" t="n">
+        <v>164</v>
+      </c>
+      <c r="G651" t="n">
+        <v>-43612338.24161015</v>
+      </c>
+      <c r="H651" t="n">
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
+      <c r="L651" t="n">
+        <v>1</v>
+      </c>
+      <c r="M651" t="inlineStr"/>
+    </row>
+    <row r="652">
+      <c r="A652" s="1" t="n">
+        <v>650</v>
+      </c>
+      <c r="B652" t="n">
+        <v>3.059</v>
+      </c>
+      <c r="C652" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="D652" t="n">
+        <v>3.098</v>
+      </c>
+      <c r="E652" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="F652" t="n">
+        <v>49040.40693673338</v>
+      </c>
+      <c r="G652" t="n">
+        <v>-43661378.64854689</v>
+      </c>
+      <c r="H652" t="n">
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
+      <c r="L652" t="n">
+        <v>1</v>
+      </c>
+      <c r="M652" t="inlineStr"/>
+    </row>
+    <row r="653">
+      <c r="A653" s="1" t="n">
+        <v>651</v>
+      </c>
+      <c r="B653" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C653" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D653" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E653" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F653" t="n">
+        <v>161</v>
+      </c>
+      <c r="G653" t="n">
+        <v>-43661217.64854689</v>
+      </c>
+      <c r="H653" t="n">
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
+      <c r="L653" t="n">
+        <v>1</v>
+      </c>
+      <c r="M653" t="inlineStr"/>
+    </row>
+    <row r="654">
+      <c r="A654" s="1" t="n">
+        <v>652</v>
+      </c>
+      <c r="B654" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C654" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D654" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E654" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F654" t="n">
+        <v>351842.8746</v>
+      </c>
+      <c r="G654" t="n">
+        <v>-44013060.52314689</v>
+      </c>
+      <c r="H654" t="n">
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
+      <c r="L654" t="n">
+        <v>1</v>
+      </c>
+      <c r="M654" t="inlineStr"/>
+    </row>
+    <row r="655">
+      <c r="A655" s="1" t="n">
+        <v>653</v>
+      </c>
+      <c r="B655" t="n">
         <v>3.03</v>
       </c>
-      <c r="K650" t="inlineStr">
+      <c r="C655" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D655" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="E655" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F655" t="n">
+        <v>158316.7676</v>
+      </c>
+      <c r="G655" t="n">
+        <v>-44171377.29074689</v>
+      </c>
+      <c r="H655" t="n">
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
+      <c r="L655" t="n">
+        <v>1</v>
+      </c>
+      <c r="M655" t="inlineStr"/>
+    </row>
+    <row r="656">
+      <c r="A656" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="B656" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C656" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="D656" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E656" t="n">
+        <v>3.023</v>
+      </c>
+      <c r="F656" t="n">
+        <v>440619.1162</v>
+      </c>
+      <c r="G656" t="n">
+        <v>-44611996.40694689</v>
+      </c>
+      <c r="H656" t="n">
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
+      <c r="L656" t="n">
+        <v>1</v>
+      </c>
+      <c r="M656" t="inlineStr"/>
+    </row>
+    <row r="657">
+      <c r="A657" s="1" t="n">
+        <v>655</v>
+      </c>
+      <c r="B657" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="C657" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="D657" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E657" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="F657" t="n">
+        <v>848452.5778</v>
+      </c>
+      <c r="G657" t="n">
+        <v>-43763543.82914689</v>
+      </c>
+      <c r="H657" t="n">
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
+      <c r="L657" t="n">
+        <v>1</v>
+      </c>
+      <c r="M657" t="inlineStr"/>
+    </row>
+    <row r="658">
+      <c r="A658" s="1" t="n">
+        <v>656</v>
+      </c>
+      <c r="B658" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C658" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D658" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E658" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F658" t="n">
+        <v>200</v>
+      </c>
+      <c r="G658" t="n">
+        <v>-43763343.82914689</v>
+      </c>
+      <c r="H658" t="n">
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
+      <c r="L658" t="n">
+        <v>1</v>
+      </c>
+      <c r="M658" t="inlineStr"/>
+    </row>
+    <row r="659">
+      <c r="A659" s="1" t="n">
+        <v>657</v>
+      </c>
+      <c r="B659" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="C659" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="D659" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="E659" t="n">
+        <v>3.058</v>
+      </c>
+      <c r="F659" t="n">
+        <v>29472.2357</v>
+      </c>
+      <c r="G659" t="n">
+        <v>-43792816.06484689</v>
+      </c>
+      <c r="H659" t="n">
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
+      <c r="L659" t="n">
+        <v>1</v>
+      </c>
+      <c r="M659" t="inlineStr"/>
+    </row>
+    <row r="660">
+      <c r="A660" s="1" t="n">
+        <v>658</v>
+      </c>
+      <c r="B660" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C660" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D660" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E660" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F660" t="n">
+        <v>5989.1843</v>
+      </c>
+      <c r="G660" t="n">
+        <v>-43786826.88054689</v>
+      </c>
+      <c r="H660" t="n">
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
+      <c r="L660" t="n">
+        <v>1</v>
+      </c>
+      <c r="M660" t="inlineStr"/>
+    </row>
+    <row r="661">
+      <c r="A661" s="1" t="n">
+        <v>659</v>
+      </c>
+      <c r="B661" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C661" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D661" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E661" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="F661" t="n">
+        <v>163</v>
+      </c>
+      <c r="G661" t="n">
+        <v>-43786663.88054689</v>
+      </c>
+      <c r="H661" t="n">
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
+      <c r="K661" t="inlineStr"/>
+      <c r="L661" t="n">
+        <v>1</v>
+      </c>
+      <c r="M661" t="inlineStr"/>
+    </row>
+    <row r="662">
+      <c r="A662" s="1" t="n">
+        <v>660</v>
+      </c>
+      <c r="B662" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="C662" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="D662" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E662" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="F662" t="n">
+        <v>333079.8541</v>
+      </c>
+      <c r="G662" t="n">
+        <v>-43786663.88054689</v>
+      </c>
+      <c r="H662" t="n">
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
+      <c r="L662" t="n">
+        <v>1</v>
+      </c>
+      <c r="M662" t="inlineStr"/>
+    </row>
+    <row r="663">
+      <c r="A663" s="1" t="n">
+        <v>661</v>
+      </c>
+      <c r="B663" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="C663" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D663" t="n">
+        <v>3.061</v>
+      </c>
+      <c r="E663" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F663" t="n">
+        <v>349564.7683</v>
+      </c>
+      <c r="G663" t="n">
+        <v>-44136228.64884689</v>
+      </c>
+      <c r="H663" t="n">
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
+      <c r="L663" t="n">
+        <v>1</v>
+      </c>
+      <c r="M663" t="inlineStr"/>
+    </row>
+    <row r="664">
+      <c r="A664" s="1" t="n">
+        <v>662</v>
+      </c>
+      <c r="B664" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="C664" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D664" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="E664" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F664" t="n">
+        <v>74661.5206</v>
+      </c>
+      <c r="G664" t="n">
+        <v>-44136228.64884689</v>
+      </c>
+      <c r="H664" t="n">
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
+      <c r="L664" t="n">
+        <v>1</v>
+      </c>
+      <c r="M664" t="inlineStr"/>
+    </row>
+    <row r="665">
+      <c r="A665" s="1" t="n">
+        <v>663</v>
+      </c>
+      <c r="B665" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="C665" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="D665" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="E665" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="F665" t="n">
+        <v>658998.1531999999</v>
+      </c>
+      <c r="G665" t="n">
+        <v>-44136228.64884689</v>
+      </c>
+      <c r="H665" t="n">
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
+      <c r="L665" t="n">
+        <v>1</v>
+      </c>
+      <c r="M665" t="inlineStr"/>
+    </row>
+    <row r="666">
+      <c r="A666" s="1" t="n">
+        <v>664</v>
+      </c>
+      <c r="B666" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="C666" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="D666" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E666" t="n">
+        <v>3.089</v>
+      </c>
+      <c r="F666" t="n">
+        <v>866086.929</v>
+      </c>
+      <c r="G666" t="n">
+        <v>-43270141.71984689</v>
+      </c>
+      <c r="H666" t="n">
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
+      <c r="L666" t="n">
+        <v>1</v>
+      </c>
+      <c r="M666" t="inlineStr"/>
+    </row>
+    <row r="667">
+      <c r="A667" s="1" t="n">
+        <v>665</v>
+      </c>
+      <c r="B667" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="C667" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="D667" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E667" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="F667" t="n">
+        <v>50325.4706</v>
+      </c>
+      <c r="G667" t="n">
+        <v>-43270141.71984689</v>
+      </c>
+      <c r="H667" t="n">
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
+      <c r="L667" t="n">
+        <v>1</v>
+      </c>
+      <c r="M667" t="inlineStr"/>
+    </row>
+    <row r="668">
+      <c r="A668" s="1" t="n">
+        <v>666</v>
+      </c>
+      <c r="B668" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="C668" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="D668" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="E668" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="F668" t="n">
+        <v>24150</v>
+      </c>
+      <c r="G668" t="n">
+        <v>-43294291.71984689</v>
+      </c>
+      <c r="H668" t="n">
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
+      <c r="L668" t="n">
+        <v>1</v>
+      </c>
+      <c r="M668" t="inlineStr"/>
+    </row>
+    <row r="669">
+      <c r="A669" s="1" t="n">
+        <v>667</v>
+      </c>
+      <c r="B669" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="C669" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="D669" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E669" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="F669" t="n">
+        <v>119436.8064</v>
+      </c>
+      <c r="G669" t="n">
+        <v>-43174854.91344689</v>
+      </c>
+      <c r="H669" t="n">
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
+      <c r="L669" t="n">
+        <v>1</v>
+      </c>
+      <c r="M669" t="inlineStr"/>
+    </row>
+    <row r="670">
+      <c r="A670" s="1" t="n">
+        <v>668</v>
+      </c>
+      <c r="B670" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="C670" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="D670" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E670" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="F670" t="n">
+        <v>342113.136</v>
+      </c>
+      <c r="G670" t="n">
+        <v>-43174854.91344689</v>
+      </c>
+      <c r="H670" t="n">
+        <v>0</v>
+      </c>
+      <c r="I670" t="inlineStr"/>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
+      <c r="L670" t="n">
+        <v>1</v>
+      </c>
+      <c r="M670" t="inlineStr"/>
+    </row>
+    <row r="671">
+      <c r="A671" s="1" t="n">
+        <v>669</v>
+      </c>
+      <c r="B671" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="C671" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="D671" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="E671" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="F671" t="n">
+        <v>36426.3647</v>
+      </c>
+      <c r="G671" t="n">
+        <v>-43174854.91344689</v>
+      </c>
+      <c r="H671" t="n">
+        <v>0</v>
+      </c>
+      <c r="I671" t="inlineStr"/>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
+      <c r="L671" t="n">
+        <v>1</v>
+      </c>
+      <c r="M671" t="inlineStr"/>
+    </row>
+    <row r="672">
+      <c r="A672" s="1" t="n">
+        <v>670</v>
+      </c>
+      <c r="B672" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C672" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D672" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E672" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F672" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G672" t="n">
+        <v>-43074854.91344689</v>
+      </c>
+      <c r="H672" t="n">
+        <v>0</v>
+      </c>
+      <c r="I672" t="inlineStr"/>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
+      <c r="L672" t="n">
+        <v>1</v>
+      </c>
+      <c r="M672" t="inlineStr"/>
+    </row>
+    <row r="673">
+      <c r="A673" s="1" t="n">
+        <v>671</v>
+      </c>
+      <c r="B673" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C673" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D673" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E673" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F673" t="n">
+        <v>22084.3538</v>
+      </c>
+      <c r="G673" t="n">
+        <v>-43074854.91344689</v>
+      </c>
+      <c r="H673" t="n">
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
+      <c r="L673" t="n">
+        <v>1</v>
+      </c>
+      <c r="M673" t="inlineStr"/>
+    </row>
+    <row r="674">
+      <c r="A674" s="1" t="n">
+        <v>672</v>
+      </c>
+      <c r="B674" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="C674" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="D674" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="E674" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="F674" t="n">
+        <v>500</v>
+      </c>
+      <c r="G674" t="n">
+        <v>-43074354.91344689</v>
+      </c>
+      <c r="H674" t="n">
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
+      <c r="L674" t="n">
+        <v>1</v>
+      </c>
+      <c r="M674" t="inlineStr"/>
+    </row>
+    <row r="675">
+      <c r="A675" s="1" t="n">
+        <v>673</v>
+      </c>
+      <c r="B675" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="C675" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="D675" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="E675" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="F675" t="n">
+        <v>12150</v>
+      </c>
+      <c r="G675" t="n">
+        <v>-43074354.91344689</v>
+      </c>
+      <c r="H675" t="n">
+        <v>0</v>
+      </c>
+      <c r="I675" t="inlineStr"/>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
+      <c r="L675" t="n">
+        <v>1</v>
+      </c>
+      <c r="M675" t="inlineStr"/>
+    </row>
+    <row r="676">
+      <c r="A676" s="1" t="n">
+        <v>674</v>
+      </c>
+      <c r="B676" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C676" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D676" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E676" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F676" t="n">
+        <v>55510</v>
+      </c>
+      <c r="G676" t="n">
+        <v>-43129864.91344689</v>
+      </c>
+      <c r="H676" t="n">
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
+      <c r="L676" t="n">
+        <v>1</v>
+      </c>
+      <c r="M676" t="inlineStr"/>
+    </row>
+    <row r="677">
+      <c r="A677" s="1" t="n">
+        <v>675</v>
+      </c>
+      <c r="B677" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="C677" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="D677" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="E677" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F677" t="n">
+        <v>27760</v>
+      </c>
+      <c r="G677" t="n">
+        <v>-43129864.91344689</v>
+      </c>
+      <c r="H677" t="n">
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
+      <c r="L677" t="n">
+        <v>1</v>
+      </c>
+      <c r="M677" t="inlineStr"/>
+    </row>
+    <row r="678">
+      <c r="A678" s="1" t="n">
+        <v>676</v>
+      </c>
+      <c r="B678" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="C678" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="D678" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="E678" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="F678" t="n">
+        <v>35090</v>
+      </c>
+      <c r="G678" t="n">
+        <v>-43094774.91344689</v>
+      </c>
+      <c r="H678" t="n">
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
+      <c r="L678" t="n">
+        <v>1</v>
+      </c>
+      <c r="M678" t="inlineStr"/>
+    </row>
+    <row r="679">
+      <c r="A679" s="1" t="n">
+        <v>677</v>
+      </c>
+      <c r="B679" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C679" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D679" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E679" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F679" t="n">
+        <v>284.4331</v>
+      </c>
+      <c r="G679" t="n">
+        <v>-43094490.48034689</v>
+      </c>
+      <c r="H679" t="n">
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
+      <c r="L679" t="n">
+        <v>1</v>
+      </c>
+      <c r="M679" t="inlineStr"/>
+    </row>
+    <row r="680">
+      <c r="A680" s="1" t="n">
+        <v>678</v>
+      </c>
+      <c r="B680" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C680" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D680" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E680" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F680" t="n">
+        <v>132628.2699</v>
+      </c>
+      <c r="G680" t="n">
+        <v>-43094490.48034689</v>
+      </c>
+      <c r="H680" t="n">
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
+      <c r="L680" t="n">
+        <v>1</v>
+      </c>
+      <c r="M680" t="inlineStr"/>
+    </row>
+    <row r="681">
+      <c r="A681" s="1" t="n">
+        <v>679</v>
+      </c>
+      <c r="B681" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C681" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D681" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E681" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F681" t="n">
+        <v>143493.0868</v>
+      </c>
+      <c r="G681" t="n">
+        <v>-43094490.48034689</v>
+      </c>
+      <c r="H681" t="n">
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
+      <c r="L681" t="n">
+        <v>1</v>
+      </c>
+      <c r="M681" t="inlineStr"/>
+    </row>
+    <row r="682">
+      <c r="A682" s="1" t="n">
+        <v>680</v>
+      </c>
+      <c r="B682" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="C682" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="D682" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="E682" t="n">
+        <v>3.131</v>
+      </c>
+      <c r="F682" t="n">
+        <v>170.0655</v>
+      </c>
+      <c r="G682" t="n">
+        <v>-43094660.54584689</v>
+      </c>
+      <c r="H682" t="n">
+        <v>0</v>
+      </c>
+      <c r="I682" t="inlineStr"/>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
+      <c r="L682" t="n">
+        <v>1</v>
+      </c>
+      <c r="M682" t="inlineStr"/>
+    </row>
+    <row r="683">
+      <c r="A683" s="1" t="n">
+        <v>681</v>
+      </c>
+      <c r="B683" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C683" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D683" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E683" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F683" t="n">
+        <v>5378.5978</v>
+      </c>
+      <c r="G683" t="n">
+        <v>-43089281.94804689</v>
+      </c>
+      <c r="H683" t="n">
+        <v>0</v>
+      </c>
+      <c r="I683" t="inlineStr"/>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
+      <c r="L683" t="n">
+        <v>1</v>
+      </c>
+      <c r="M683" t="inlineStr"/>
+    </row>
+    <row r="684">
+      <c r="A684" s="1" t="n">
+        <v>682</v>
+      </c>
+      <c r="B684" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="C684" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="D684" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="E684" t="n">
+        <v>3.138</v>
+      </c>
+      <c r="F684" t="n">
+        <v>6373.486297004461</v>
+      </c>
+      <c r="G684" t="n">
+        <v>-43089281.94804689</v>
+      </c>
+      <c r="H684" t="n">
+        <v>0</v>
+      </c>
+      <c r="I684" t="inlineStr"/>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
+      <c r="L684" t="n">
+        <v>1</v>
+      </c>
+      <c r="M684" t="inlineStr"/>
+    </row>
+    <row r="685">
+      <c r="A685" s="1" t="n">
+        <v>683</v>
+      </c>
+      <c r="B685" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C685" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D685" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E685" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F685" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G685" t="n">
+        <v>-43189281.94804689</v>
+      </c>
+      <c r="H685" t="n">
+        <v>0</v>
+      </c>
+      <c r="I685" t="inlineStr"/>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
+      <c r="L685" t="n">
+        <v>1</v>
+      </c>
+      <c r="M685" t="inlineStr"/>
+    </row>
+    <row r="686">
+      <c r="A686" s="1" t="n">
+        <v>684</v>
+      </c>
+      <c r="B686" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C686" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D686" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="E686" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F686" t="n">
+        <v>5470</v>
+      </c>
+      <c r="G686" t="n">
+        <v>-43189281.94804689</v>
+      </c>
+      <c r="H686" t="n">
+        <v>0</v>
+      </c>
+      <c r="I686" t="inlineStr"/>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
+      <c r="L686" t="n">
+        <v>1</v>
+      </c>
+      <c r="M686" t="inlineStr"/>
+    </row>
+    <row r="687">
+      <c r="A687" s="1" t="n">
+        <v>685</v>
+      </c>
+      <c r="B687" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C687" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D687" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E687" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F687" t="n">
+        <v>30984</v>
+      </c>
+      <c r="G687" t="n">
+        <v>-43189281.94804689</v>
+      </c>
+      <c r="H687" t="n">
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
+      <c r="L687" t="n">
+        <v>1</v>
+      </c>
+      <c r="M687" t="inlineStr"/>
+    </row>
+    <row r="688">
+      <c r="A688" s="1" t="n">
+        <v>686</v>
+      </c>
+      <c r="B688" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="C688" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="D688" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="E688" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F688" t="n">
+        <v>160</v>
+      </c>
+      <c r="G688" t="n">
+        <v>-43189121.94804689</v>
+      </c>
+      <c r="H688" t="n">
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
+      <c r="L688" t="n">
+        <v>1</v>
+      </c>
+      <c r="M688" t="inlineStr"/>
+    </row>
+    <row r="689">
+      <c r="A689" s="1" t="n">
+        <v>687</v>
+      </c>
+      <c r="B689" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C689" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D689" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E689" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F689" t="n">
+        <v>93838</v>
+      </c>
+      <c r="G689" t="n">
+        <v>-43282959.94804689</v>
+      </c>
+      <c r="H689" t="n">
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
+      <c r="L689" t="n">
+        <v>1</v>
+      </c>
+      <c r="M689" t="inlineStr"/>
+    </row>
+    <row r="690">
+      <c r="A690" s="1" t="n">
+        <v>688</v>
+      </c>
+      <c r="B690" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C690" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D690" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E690" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F690" t="n">
+        <v>93481.7398</v>
+      </c>
+      <c r="G690" t="n">
+        <v>-43376441.68784688</v>
+      </c>
+      <c r="H690" t="n">
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
+      <c r="L690" t="n">
+        <v>1</v>
+      </c>
+      <c r="M690" t="inlineStr"/>
+    </row>
+    <row r="691">
+      <c r="A691" s="1" t="n">
+        <v>689</v>
+      </c>
+      <c r="B691" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="C691" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="D691" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="E691" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="F691" t="n">
+        <v>5216.9397</v>
+      </c>
+      <c r="G691" t="n">
+        <v>-43371224.74814688</v>
+      </c>
+      <c r="H691" t="n">
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
+      <c r="L691" t="n">
+        <v>1</v>
+      </c>
+      <c r="M691" t="inlineStr"/>
+    </row>
+    <row r="692">
+      <c r="A692" s="1" t="n">
+        <v>690</v>
+      </c>
+      <c r="B692" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C692" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D692" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E692" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F692" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G692" t="n">
+        <v>-43271224.74814688</v>
+      </c>
+      <c r="H692" t="n">
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
+      <c r="L692" t="n">
+        <v>1</v>
+      </c>
+      <c r="M692" t="inlineStr"/>
+    </row>
+    <row r="693">
+      <c r="A693" s="1" t="n">
+        <v>691</v>
+      </c>
+      <c r="B693" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C693" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D693" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E693" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F693" t="n">
+        <v>226422</v>
+      </c>
+      <c r="G693" t="n">
+        <v>-43271224.74814688</v>
+      </c>
+      <c r="H693" t="n">
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
+      <c r="L693" t="n">
+        <v>1</v>
+      </c>
+      <c r="M693" t="inlineStr"/>
+    </row>
+    <row r="694">
+      <c r="A694" s="1" t="n">
+        <v>692</v>
+      </c>
+      <c r="B694" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="C694" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="D694" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="E694" t="n">
+        <v>3.136</v>
+      </c>
+      <c r="F694" t="n">
+        <v>0.4006</v>
+      </c>
+      <c r="G694" t="n">
+        <v>-43271224.74814688</v>
+      </c>
+      <c r="H694" t="n">
+        <v>0</v>
+      </c>
+      <c r="I694" t="inlineStr"/>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
+      <c r="L694" t="n">
+        <v>1</v>
+      </c>
+      <c r="M694" t="inlineStr"/>
+    </row>
+    <row r="695">
+      <c r="A695" s="1" t="n">
+        <v>693</v>
+      </c>
+      <c r="B695" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="C695" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="D695" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="E695" t="n">
+        <v>3.137</v>
+      </c>
+      <c r="F695" t="n">
+        <v>176.9207</v>
+      </c>
+      <c r="G695" t="n">
+        <v>-43271047.82744689</v>
+      </c>
+      <c r="H695" t="n">
+        <v>0</v>
+      </c>
+      <c r="I695" t="inlineStr"/>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
+      <c r="L695" t="n">
+        <v>1</v>
+      </c>
+      <c r="M695" t="inlineStr"/>
+    </row>
+    <row r="696">
+      <c r="A696" s="1" t="n">
+        <v>694</v>
+      </c>
+      <c r="B696" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="C696" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="D696" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="E696" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="F696" t="n">
+        <v>1783.3066</v>
+      </c>
+      <c r="G696" t="n">
+        <v>-43272831.13404688</v>
+      </c>
+      <c r="H696" t="n">
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
+      <c r="L696" t="n">
+        <v>1</v>
+      </c>
+      <c r="M696" t="inlineStr"/>
+    </row>
+    <row r="697">
+      <c r="A697" s="1" t="n">
+        <v>695</v>
+      </c>
+      <c r="B697" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C697" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D697" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E697" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F697" t="n">
+        <v>10624.279</v>
+      </c>
+      <c r="G697" t="n">
+        <v>-43283455.41304688</v>
+      </c>
+      <c r="H697" t="n">
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
+      <c r="L697" t="n">
+        <v>1</v>
+      </c>
+      <c r="M697" t="inlineStr"/>
+    </row>
+    <row r="698">
+      <c r="A698" s="1" t="n">
+        <v>696</v>
+      </c>
+      <c r="B698" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C698" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D698" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E698" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F698" t="n">
+        <v>5566.8387</v>
+      </c>
+      <c r="G698" t="n">
+        <v>-43283455.41304688</v>
+      </c>
+      <c r="H698" t="n">
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
+      <c r="L698" t="n">
+        <v>1</v>
+      </c>
+      <c r="M698" t="inlineStr"/>
+    </row>
+    <row r="699">
+      <c r="A699" s="1" t="n">
+        <v>697</v>
+      </c>
+      <c r="B699" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="C699" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D699" t="n">
+        <v>3.103</v>
+      </c>
+      <c r="E699" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F699" t="n">
+        <v>22263.213</v>
+      </c>
+      <c r="G699" t="n">
+        <v>-43305718.62604688</v>
+      </c>
+      <c r="H699" t="n">
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
+      <c r="L699" t="n">
+        <v>1</v>
+      </c>
+      <c r="M699" t="inlineStr"/>
+    </row>
+    <row r="700">
+      <c r="A700" s="1" t="n">
+        <v>698</v>
+      </c>
+      <c r="B700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="C700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="D700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="E700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="F700" t="n">
+        <v>162456.2196</v>
+      </c>
+      <c r="G700" t="n">
+        <v>-43305718.62604688</v>
+      </c>
+      <c r="H700" t="n">
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
+      <c r="L700" t="n">
+        <v>1</v>
+      </c>
+      <c r="M700" t="inlineStr"/>
+    </row>
+    <row r="701">
+      <c r="A701" s="1" t="n">
+        <v>699</v>
+      </c>
+      <c r="B701" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="C701" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="D701" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="E701" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="F701" t="n">
+        <v>94262.57030000001</v>
+      </c>
+      <c r="G701" t="n">
+        <v>-43399981.19634688</v>
+      </c>
+      <c r="H701" t="n">
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
+      <c r="L701" t="n">
+        <v>1</v>
+      </c>
+      <c r="M701" t="inlineStr"/>
+    </row>
+    <row r="702">
+      <c r="A702" s="1" t="n">
+        <v>700</v>
+      </c>
+      <c r="B702" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="C702" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="D702" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="E702" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="F702" t="n">
+        <v>1553.0416</v>
+      </c>
+      <c r="G702" t="n">
+        <v>-43401534.23794688</v>
+      </c>
+      <c r="H702" t="n">
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
+      <c r="L702" t="n">
+        <v>1</v>
+      </c>
+      <c r="M702" t="inlineStr"/>
+    </row>
+    <row r="703">
+      <c r="A703" s="1" t="n">
+        <v>701</v>
+      </c>
+      <c r="B703" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="C703" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D703" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="E703" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="F703" t="n">
+        <v>16954.4608</v>
+      </c>
+      <c r="G703" t="n">
+        <v>-43418488.69874687</v>
+      </c>
+      <c r="H703" t="n">
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="J703" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="K703" t="inlineStr"/>
+      <c r="L703" t="n">
+        <v>1</v>
+      </c>
+      <c r="M703" t="inlineStr"/>
+    </row>
+    <row r="704">
+      <c r="A704" s="1" t="n">
+        <v>702</v>
+      </c>
+      <c r="B704" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="C704" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D704" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="E704" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="F704" t="n">
+        <v>15660</v>
+      </c>
+      <c r="G704" t="n">
+        <v>-43418488.69874687</v>
+      </c>
+      <c r="H704" t="n">
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="J704" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L704" t="n">
+        <v>1</v>
+      </c>
+      <c r="M704" t="inlineStr"/>
+    </row>
+    <row r="705">
+      <c r="A705" s="1" t="n">
+        <v>703</v>
+      </c>
+      <c r="B705" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="C705" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="D705" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="E705" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="F705" t="n">
+        <v>29099.5919</v>
+      </c>
+      <c r="G705" t="n">
+        <v>-43418488.69874687</v>
+      </c>
+      <c r="H705" t="n">
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="J705" t="n">
+        <v>3.093</v>
+      </c>
+      <c r="K705" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C706" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D706" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E706" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F706" t="n">
+        <v>500</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-43417988.69874687</v>
+      </c>
+      <c r="H706" t="n">
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="J706" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="C707" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="D707" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="E707" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="F707" t="n">
+        <v>1607.717041800643</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-43417988.69874687</v>
+      </c>
+      <c r="H707" t="n">
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J707" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="C708" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="D708" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="E708" t="n">
+        <v>3.118</v>
+      </c>
+      <c r="F708" t="n">
+        <v>19584.82124065406</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-43398403.87750622</v>
+      </c>
+      <c r="H708" t="n">
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J708" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="K708" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="C709" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="D709" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="E709" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="F709" t="n">
+        <v>492701.358859346</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-42905702.51864687</v>
+      </c>
+      <c r="H709" t="n">
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="J709" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="K709" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L650" t="n">
-        <v>1</v>
-      </c>
-      <c r="M650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>649</v>
-      </c>
-      <c r="B651" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="C651" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="D651" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="E651" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="F651" t="n">
-        <v>164</v>
-      </c>
-      <c r="G651" t="n">
-        <v>-43612338.24161015</v>
-      </c>
-      <c r="H651" t="n">
-        <v>1</v>
-      </c>
-      <c r="I651" t="n">
-        <v>3.011</v>
-      </c>
-      <c r="J651" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L651" t="n">
-        <v>1</v>
-      </c>
-      <c r="M651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>650</v>
-      </c>
-      <c r="B652" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="C652" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="D652" t="n">
-        <v>3.098</v>
-      </c>
-      <c r="E652" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="F652" t="n">
-        <v>49040.40693673338</v>
-      </c>
-      <c r="G652" t="n">
-        <v>-43661378.64854689</v>
-      </c>
-      <c r="H652" t="n">
-        <v>1</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3.059</v>
-      </c>
-      <c r="J652" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L652" t="n">
-        <v>1</v>
-      </c>
-      <c r="M652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>651</v>
-      </c>
-      <c r="B653" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C653" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D653" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E653" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F653" t="n">
-        <v>161</v>
-      </c>
-      <c r="G653" t="n">
-        <v>-43661217.64854689</v>
-      </c>
-      <c r="H653" t="n">
-        <v>1</v>
-      </c>
-      <c r="I653" t="n">
-        <v>3.022</v>
-      </c>
-      <c r="J653" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L653" t="n">
-        <v>1</v>
-      </c>
-      <c r="M653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>652</v>
-      </c>
-      <c r="B654" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C654" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D654" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E654" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F654" t="n">
-        <v>351842.8746</v>
-      </c>
-      <c r="G654" t="n">
-        <v>-44013060.52314689</v>
-      </c>
-      <c r="H654" t="n">
-        <v>1</v>
-      </c>
-      <c r="I654" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J654" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L654" t="n">
-        <v>1</v>
-      </c>
-      <c r="M654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>653</v>
-      </c>
-      <c r="B655" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="C655" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D655" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="E655" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="F655" t="n">
-        <v>158316.7676</v>
-      </c>
-      <c r="G655" t="n">
-        <v>-44171377.29074689</v>
-      </c>
-      <c r="H655" t="n">
-        <v>0</v>
-      </c>
-      <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L655" t="n">
-        <v>1</v>
-      </c>
-      <c r="M655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="B656" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="C656" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="D656" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E656" t="n">
-        <v>3.023</v>
-      </c>
-      <c r="F656" t="n">
-        <v>440619.1162</v>
-      </c>
-      <c r="G656" t="n">
-        <v>-44611996.40694689</v>
-      </c>
-      <c r="H656" t="n">
-        <v>1</v>
-      </c>
-      <c r="I656" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="J656" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L656" t="n">
-        <v>1</v>
-      </c>
-      <c r="M656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>655</v>
-      </c>
-      <c r="B657" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="C657" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="D657" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="E657" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="F657" t="n">
-        <v>848452.5778</v>
-      </c>
-      <c r="G657" t="n">
-        <v>-43763543.82914689</v>
-      </c>
-      <c r="H657" t="n">
-        <v>0</v>
-      </c>
-      <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L657" t="n">
-        <v>1</v>
-      </c>
-      <c r="M657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>656</v>
-      </c>
-      <c r="B658" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C658" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D658" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E658" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F658" t="n">
-        <v>200</v>
-      </c>
-      <c r="G658" t="n">
-        <v>-43763343.82914689</v>
-      </c>
-      <c r="H658" t="n">
-        <v>1</v>
-      </c>
-      <c r="I658" t="n">
-        <v>3.024</v>
-      </c>
-      <c r="J658" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L658" t="n">
-        <v>1</v>
-      </c>
-      <c r="M658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>657</v>
-      </c>
-      <c r="B659" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="C659" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="D659" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="E659" t="n">
-        <v>3.058</v>
-      </c>
-      <c r="F659" t="n">
-        <v>29472.2357</v>
-      </c>
-      <c r="G659" t="n">
-        <v>-43792816.06484689</v>
-      </c>
-      <c r="H659" t="n">
-        <v>0</v>
-      </c>
-      <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L659" t="n">
-        <v>1</v>
-      </c>
-      <c r="M659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>658</v>
-      </c>
-      <c r="B660" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C660" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D660" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E660" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F660" t="n">
-        <v>5989.1843</v>
-      </c>
-      <c r="G660" t="n">
-        <v>-43786826.88054689</v>
-      </c>
-      <c r="H660" t="n">
-        <v>0</v>
-      </c>
-      <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L660" t="n">
-        <v>1</v>
-      </c>
-      <c r="M660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>659</v>
-      </c>
-      <c r="B661" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C661" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D661" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E661" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="F661" t="n">
-        <v>163</v>
-      </c>
-      <c r="G661" t="n">
-        <v>-43786663.88054689</v>
-      </c>
-      <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
-      <c r="J661" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L661" t="n">
-        <v>1</v>
-      </c>
-      <c r="M661" t="inlineStr"/>
-    </row>
-    <row r="662">
-      <c r="A662" s="1" t="n">
-        <v>660</v>
-      </c>
-      <c r="B662" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="C662" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="D662" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E662" t="n">
-        <v>3.069</v>
-      </c>
-      <c r="F662" t="n">
-        <v>333079.8541</v>
-      </c>
-      <c r="G662" t="n">
-        <v>-43786663.88054689</v>
-      </c>
-      <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
-      <c r="J662" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L662" t="n">
-        <v>1</v>
-      </c>
-      <c r="M662" t="inlineStr"/>
-    </row>
-    <row r="663">
-      <c r="A663" s="1" t="n">
-        <v>661</v>
-      </c>
-      <c r="B663" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="C663" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D663" t="n">
-        <v>3.061</v>
-      </c>
-      <c r="E663" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F663" t="n">
-        <v>349564.7683</v>
-      </c>
-      <c r="G663" t="n">
-        <v>-44136228.64884689</v>
-      </c>
-      <c r="H663" t="n">
-        <v>0</v>
-      </c>
-      <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L663" t="n">
-        <v>1</v>
-      </c>
-      <c r="M663" t="inlineStr"/>
-    </row>
-    <row r="664">
-      <c r="A664" s="1" t="n">
-        <v>662</v>
-      </c>
-      <c r="B664" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="C664" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D664" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="E664" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F664" t="n">
-        <v>74661.5206</v>
-      </c>
-      <c r="G664" t="n">
-        <v>-44136228.64884689</v>
-      </c>
-      <c r="H664" t="n">
-        <v>0</v>
-      </c>
-      <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L664" t="n">
-        <v>1</v>
-      </c>
-      <c r="M664" t="inlineStr"/>
-    </row>
-    <row r="665">
-      <c r="A665" s="1" t="n">
-        <v>663</v>
-      </c>
-      <c r="B665" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="C665" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="D665" t="n">
-        <v>3.07</v>
-      </c>
-      <c r="E665" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="F665" t="n">
-        <v>658998.1531999999</v>
-      </c>
-      <c r="G665" t="n">
-        <v>-44136228.64884689</v>
-      </c>
-      <c r="H665" t="n">
-        <v>0</v>
-      </c>
-      <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L665" t="n">
-        <v>1</v>
-      </c>
-      <c r="M665" t="inlineStr"/>
-    </row>
-    <row r="666">
-      <c r="A666" s="1" t="n">
-        <v>664</v>
-      </c>
-      <c r="B666" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="C666" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="D666" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E666" t="n">
-        <v>3.089</v>
-      </c>
-      <c r="F666" t="n">
-        <v>866086.929</v>
-      </c>
-      <c r="G666" t="n">
-        <v>-43270141.71984689</v>
-      </c>
-      <c r="H666" t="n">
-        <v>0</v>
-      </c>
-      <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L666" t="n">
-        <v>1</v>
-      </c>
-      <c r="M666" t="inlineStr"/>
-    </row>
-    <row r="667">
-      <c r="A667" s="1" t="n">
-        <v>665</v>
-      </c>
-      <c r="B667" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="C667" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="D667" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E667" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="F667" t="n">
-        <v>50325.4706</v>
-      </c>
-      <c r="G667" t="n">
-        <v>-43270141.71984689</v>
-      </c>
-      <c r="H667" t="n">
-        <v>0</v>
-      </c>
-      <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L667" t="n">
-        <v>1</v>
-      </c>
-      <c r="M667" t="inlineStr"/>
-    </row>
-    <row r="668">
-      <c r="A668" s="1" t="n">
-        <v>666</v>
-      </c>
-      <c r="B668" t="n">
-        <v>3.082</v>
-      </c>
-      <c r="C668" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="D668" t="n">
-        <v>3.082</v>
-      </c>
-      <c r="E668" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="F668" t="n">
-        <v>24150</v>
-      </c>
-      <c r="G668" t="n">
-        <v>-43294291.71984689</v>
-      </c>
-      <c r="H668" t="n">
-        <v>0</v>
-      </c>
-      <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L668" t="n">
-        <v>1</v>
-      </c>
-      <c r="M668" t="inlineStr"/>
-    </row>
-    <row r="669">
-      <c r="A669" s="1" t="n">
-        <v>667</v>
-      </c>
-      <c r="B669" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="C669" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="D669" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E669" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="F669" t="n">
-        <v>119436.8064</v>
-      </c>
-      <c r="G669" t="n">
-        <v>-43174854.91344689</v>
-      </c>
-      <c r="H669" t="n">
-        <v>0</v>
-      </c>
-      <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L669" t="n">
-        <v>1</v>
-      </c>
-      <c r="M669" t="inlineStr"/>
-    </row>
-    <row r="670">
-      <c r="A670" s="1" t="n">
-        <v>668</v>
-      </c>
-      <c r="B670" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="C670" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="D670" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E670" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="F670" t="n">
-        <v>342113.136</v>
-      </c>
-      <c r="G670" t="n">
-        <v>-43174854.91344689</v>
-      </c>
-      <c r="H670" t="n">
-        <v>0</v>
-      </c>
-      <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L670" t="n">
-        <v>1</v>
-      </c>
-      <c r="M670" t="inlineStr"/>
-    </row>
-    <row r="671">
-      <c r="A671" s="1" t="n">
-        <v>669</v>
-      </c>
-      <c r="B671" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="C671" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="D671" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="E671" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="F671" t="n">
-        <v>36426.3647</v>
-      </c>
-      <c r="G671" t="n">
-        <v>-43174854.91344689</v>
-      </c>
-      <c r="H671" t="n">
-        <v>0</v>
-      </c>
-      <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L671" t="n">
-        <v>1</v>
-      </c>
-      <c r="M671" t="inlineStr"/>
-    </row>
-    <row r="672">
-      <c r="A672" s="1" t="n">
-        <v>670</v>
-      </c>
-      <c r="B672" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C672" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D672" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E672" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F672" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G672" t="n">
-        <v>-43074854.91344689</v>
-      </c>
-      <c r="H672" t="n">
-        <v>0</v>
-      </c>
-      <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L672" t="n">
-        <v>1</v>
-      </c>
-      <c r="M672" t="inlineStr"/>
-    </row>
-    <row r="673">
-      <c r="A673" s="1" t="n">
-        <v>671</v>
-      </c>
-      <c r="B673" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C673" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D673" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E673" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F673" t="n">
-        <v>22084.3538</v>
-      </c>
-      <c r="G673" t="n">
-        <v>-43074854.91344689</v>
-      </c>
-      <c r="H673" t="n">
-        <v>0</v>
-      </c>
-      <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L673" t="n">
-        <v>1</v>
-      </c>
-      <c r="M673" t="inlineStr"/>
-    </row>
-    <row r="674">
-      <c r="A674" s="1" t="n">
-        <v>672</v>
-      </c>
-      <c r="B674" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="C674" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="D674" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="E674" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="F674" t="n">
-        <v>500</v>
-      </c>
-      <c r="G674" t="n">
-        <v>-43074354.91344689</v>
-      </c>
-      <c r="H674" t="n">
-        <v>0</v>
-      </c>
-      <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L674" t="n">
-        <v>1</v>
-      </c>
-      <c r="M674" t="inlineStr"/>
-    </row>
-    <row r="675">
-      <c r="A675" s="1" t="n">
-        <v>673</v>
-      </c>
-      <c r="B675" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="C675" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="D675" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="E675" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="F675" t="n">
-        <v>12150</v>
-      </c>
-      <c r="G675" t="n">
-        <v>-43074354.91344689</v>
-      </c>
-      <c r="H675" t="n">
-        <v>0</v>
-      </c>
-      <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L675" t="n">
-        <v>1</v>
-      </c>
-      <c r="M675" t="inlineStr"/>
-    </row>
-    <row r="676">
-      <c r="A676" s="1" t="n">
-        <v>674</v>
-      </c>
-      <c r="B676" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C676" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D676" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E676" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F676" t="n">
-        <v>55510</v>
-      </c>
-      <c r="G676" t="n">
-        <v>-43129864.91344689</v>
-      </c>
-      <c r="H676" t="n">
-        <v>0</v>
-      </c>
-      <c r="I676" t="inlineStr"/>
-      <c r="J676" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L676" t="n">
-        <v>1</v>
-      </c>
-      <c r="M676" t="inlineStr"/>
-    </row>
-    <row r="677">
-      <c r="A677" s="1" t="n">
-        <v>675</v>
-      </c>
-      <c r="B677" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="C677" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="D677" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="E677" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="F677" t="n">
-        <v>27760</v>
-      </c>
-      <c r="G677" t="n">
-        <v>-43129864.91344689</v>
-      </c>
-      <c r="H677" t="n">
-        <v>0</v>
-      </c>
-      <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L677" t="n">
-        <v>1</v>
-      </c>
-      <c r="M677" t="inlineStr"/>
-    </row>
-    <row r="678">
-      <c r="A678" s="1" t="n">
-        <v>676</v>
-      </c>
-      <c r="B678" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="C678" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="D678" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="E678" t="n">
-        <v>3.127</v>
-      </c>
-      <c r="F678" t="n">
-        <v>35090</v>
-      </c>
-      <c r="G678" t="n">
-        <v>-43094774.91344689</v>
-      </c>
-      <c r="H678" t="n">
-        <v>0</v>
-      </c>
-      <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L678" t="n">
-        <v>1</v>
-      </c>
-      <c r="M678" t="inlineStr"/>
-    </row>
-    <row r="679">
-      <c r="A679" s="1" t="n">
-        <v>677</v>
-      </c>
-      <c r="B679" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C679" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D679" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E679" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F679" t="n">
-        <v>284.4331</v>
-      </c>
-      <c r="G679" t="n">
-        <v>-43094490.48034689</v>
-      </c>
-      <c r="H679" t="n">
-        <v>0</v>
-      </c>
-      <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L679" t="n">
-        <v>1</v>
-      </c>
-      <c r="M679" t="inlineStr"/>
-    </row>
-    <row r="680">
-      <c r="A680" s="1" t="n">
-        <v>678</v>
-      </c>
-      <c r="B680" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C680" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D680" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E680" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F680" t="n">
-        <v>132628.2699</v>
-      </c>
-      <c r="G680" t="n">
-        <v>-43094490.48034689</v>
-      </c>
-      <c r="H680" t="n">
-        <v>0</v>
-      </c>
-      <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L680" t="n">
-        <v>1</v>
-      </c>
-      <c r="M680" t="inlineStr"/>
-    </row>
-    <row r="681">
-      <c r="A681" s="1" t="n">
-        <v>679</v>
-      </c>
-      <c r="B681" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C681" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D681" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E681" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F681" t="n">
-        <v>143493.0868</v>
-      </c>
-      <c r="G681" t="n">
-        <v>-43094490.48034689</v>
-      </c>
-      <c r="H681" t="n">
-        <v>0</v>
-      </c>
-      <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L681" t="n">
-        <v>1</v>
-      </c>
-      <c r="M681" t="inlineStr"/>
-    </row>
-    <row r="682">
-      <c r="A682" s="1" t="n">
-        <v>680</v>
-      </c>
-      <c r="B682" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="C682" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="D682" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="E682" t="n">
-        <v>3.131</v>
-      </c>
-      <c r="F682" t="n">
-        <v>170.0655</v>
-      </c>
-      <c r="G682" t="n">
-        <v>-43094660.54584689</v>
-      </c>
-      <c r="H682" t="n">
-        <v>0</v>
-      </c>
-      <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L682" t="n">
-        <v>1</v>
-      </c>
-      <c r="M682" t="inlineStr"/>
-    </row>
-    <row r="683">
-      <c r="A683" s="1" t="n">
-        <v>681</v>
-      </c>
-      <c r="B683" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C683" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D683" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E683" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F683" t="n">
-        <v>5378.5978</v>
-      </c>
-      <c r="G683" t="n">
-        <v>-43089281.94804689</v>
-      </c>
-      <c r="H683" t="n">
-        <v>0</v>
-      </c>
-      <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L683" t="n">
-        <v>1</v>
-      </c>
-      <c r="M683" t="inlineStr"/>
-    </row>
-    <row r="684">
-      <c r="A684" s="1" t="n">
-        <v>682</v>
-      </c>
-      <c r="B684" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="C684" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="D684" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="E684" t="n">
-        <v>3.138</v>
-      </c>
-      <c r="F684" t="n">
-        <v>6373.486297004461</v>
-      </c>
-      <c r="G684" t="n">
-        <v>-43089281.94804689</v>
-      </c>
-      <c r="H684" t="n">
-        <v>0</v>
-      </c>
-      <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L684" t="n">
-        <v>1</v>
-      </c>
-      <c r="M684" t="inlineStr"/>
-    </row>
-    <row r="685">
-      <c r="A685" s="1" t="n">
-        <v>683</v>
-      </c>
-      <c r="B685" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C685" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D685" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E685" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F685" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G685" t="n">
-        <v>-43189281.94804689</v>
-      </c>
-      <c r="H685" t="n">
-        <v>0</v>
-      </c>
-      <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L685" t="n">
-        <v>1</v>
-      </c>
-      <c r="M685" t="inlineStr"/>
-    </row>
-    <row r="686">
-      <c r="A686" s="1" t="n">
-        <v>684</v>
-      </c>
-      <c r="B686" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C686" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D686" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="E686" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F686" t="n">
-        <v>5470</v>
-      </c>
-      <c r="G686" t="n">
-        <v>-43189281.94804689</v>
-      </c>
-      <c r="H686" t="n">
-        <v>0</v>
-      </c>
-      <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L686" t="n">
-        <v>1</v>
-      </c>
-      <c r="M686" t="inlineStr"/>
-    </row>
-    <row r="687">
-      <c r="A687" s="1" t="n">
-        <v>685</v>
-      </c>
-      <c r="B687" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C687" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D687" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E687" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F687" t="n">
-        <v>30984</v>
-      </c>
-      <c r="G687" t="n">
-        <v>-43189281.94804689</v>
-      </c>
-      <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
-      <c r="J687" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L687" t="n">
-        <v>1</v>
-      </c>
-      <c r="M687" t="inlineStr"/>
-    </row>
-    <row r="688">
-      <c r="A688" s="1" t="n">
-        <v>686</v>
-      </c>
-      <c r="B688" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="C688" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="D688" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="E688" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="F688" t="n">
-        <v>160</v>
-      </c>
-      <c r="G688" t="n">
-        <v>-43189121.94804689</v>
-      </c>
-      <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
-      <c r="J688" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L688" t="n">
-        <v>1</v>
-      </c>
-      <c r="M688" t="inlineStr"/>
-    </row>
-    <row r="689">
-      <c r="A689" s="1" t="n">
-        <v>687</v>
-      </c>
-      <c r="B689" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C689" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D689" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E689" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F689" t="n">
-        <v>93838</v>
-      </c>
-      <c r="G689" t="n">
-        <v>-43282959.94804689</v>
-      </c>
-      <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
-      <c r="J689" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L689" t="n">
-        <v>1</v>
-      </c>
-      <c r="M689" t="inlineStr"/>
-    </row>
-    <row r="690">
-      <c r="A690" s="1" t="n">
-        <v>688</v>
-      </c>
-      <c r="B690" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C690" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D690" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E690" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F690" t="n">
-        <v>93481.7398</v>
-      </c>
-      <c r="G690" t="n">
-        <v>-43376441.68784688</v>
-      </c>
-      <c r="H690" t="n">
-        <v>0</v>
-      </c>
-      <c r="I690" t="inlineStr"/>
-      <c r="J690" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L690" t="n">
-        <v>1</v>
-      </c>
-      <c r="M690" t="inlineStr"/>
-    </row>
-    <row r="691">
-      <c r="A691" s="1" t="n">
-        <v>689</v>
-      </c>
-      <c r="B691" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="C691" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="D691" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="E691" t="n">
-        <v>3.13</v>
-      </c>
-      <c r="F691" t="n">
-        <v>5216.9397</v>
-      </c>
-      <c r="G691" t="n">
-        <v>-43371224.74814688</v>
-      </c>
-      <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
-      <c r="J691" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L691" t="n">
-        <v>1</v>
-      </c>
-      <c r="M691" t="inlineStr"/>
-    </row>
-    <row r="692">
-      <c r="A692" s="1" t="n">
-        <v>690</v>
-      </c>
-      <c r="B692" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C692" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D692" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E692" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F692" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G692" t="n">
-        <v>-43271224.74814688</v>
-      </c>
-      <c r="H692" t="n">
-        <v>0</v>
-      </c>
-      <c r="I692" t="inlineStr"/>
-      <c r="J692" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L692" t="n">
-        <v>1</v>
-      </c>
-      <c r="M692" t="inlineStr"/>
-    </row>
-    <row r="693">
-      <c r="A693" s="1" t="n">
-        <v>691</v>
-      </c>
-      <c r="B693" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C693" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D693" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E693" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F693" t="n">
-        <v>226422</v>
-      </c>
-      <c r="G693" t="n">
-        <v>-43271224.74814688</v>
-      </c>
-      <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
-      <c r="J693" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L693" t="n">
-        <v>1</v>
-      </c>
-      <c r="M693" t="inlineStr"/>
-    </row>
-    <row r="694">
-      <c r="A694" s="1" t="n">
-        <v>692</v>
-      </c>
-      <c r="B694" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="C694" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="D694" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="E694" t="n">
-        <v>3.136</v>
-      </c>
-      <c r="F694" t="n">
-        <v>0.4006</v>
-      </c>
-      <c r="G694" t="n">
-        <v>-43271224.74814688</v>
-      </c>
-      <c r="H694" t="n">
-        <v>0</v>
-      </c>
-      <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L694" t="n">
-        <v>1</v>
-      </c>
-      <c r="M694" t="inlineStr"/>
-    </row>
-    <row r="695">
-      <c r="A695" s="1" t="n">
-        <v>693</v>
-      </c>
-      <c r="B695" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="C695" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="D695" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="E695" t="n">
-        <v>3.137</v>
-      </c>
-      <c r="F695" t="n">
-        <v>176.9207</v>
-      </c>
-      <c r="G695" t="n">
-        <v>-43271047.82744689</v>
-      </c>
-      <c r="H695" t="n">
-        <v>0</v>
-      </c>
-      <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L695" t="n">
-        <v>1</v>
-      </c>
-      <c r="M695" t="inlineStr"/>
-    </row>
-    <row r="696">
-      <c r="A696" s="1" t="n">
-        <v>694</v>
-      </c>
-      <c r="B696" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="C696" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="D696" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="E696" t="n">
-        <v>3.115</v>
-      </c>
-      <c r="F696" t="n">
-        <v>1783.3066</v>
-      </c>
-      <c r="G696" t="n">
-        <v>-43272831.13404688</v>
-      </c>
-      <c r="H696" t="n">
-        <v>0</v>
-      </c>
-      <c r="I696" t="inlineStr"/>
-      <c r="J696" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L696" t="n">
-        <v>1</v>
-      </c>
-      <c r="M696" t="inlineStr"/>
-    </row>
-    <row r="697">
-      <c r="A697" s="1" t="n">
-        <v>695</v>
-      </c>
-      <c r="B697" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C697" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D697" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E697" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F697" t="n">
-        <v>10624.279</v>
-      </c>
-      <c r="G697" t="n">
-        <v>-43283455.41304688</v>
-      </c>
-      <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L697" t="n">
-        <v>1</v>
-      </c>
-      <c r="M697" t="inlineStr"/>
-    </row>
-    <row r="698">
-      <c r="A698" s="1" t="n">
-        <v>696</v>
-      </c>
-      <c r="B698" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C698" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D698" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E698" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F698" t="n">
-        <v>5566.8387</v>
-      </c>
-      <c r="G698" t="n">
-        <v>-43283455.41304688</v>
-      </c>
-      <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L698" t="n">
-        <v>1</v>
-      </c>
-      <c r="M698" t="inlineStr"/>
-    </row>
-    <row r="699">
-      <c r="A699" s="1" t="n">
-        <v>697</v>
-      </c>
-      <c r="B699" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="C699" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D699" t="n">
-        <v>3.103</v>
-      </c>
-      <c r="E699" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F699" t="n">
-        <v>22263.213</v>
-      </c>
-      <c r="G699" t="n">
-        <v>-43305718.62604688</v>
-      </c>
-      <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L699" t="n">
-        <v>1</v>
-      </c>
-      <c r="M699" t="inlineStr"/>
-    </row>
-    <row r="700">
-      <c r="A700" s="1" t="n">
-        <v>698</v>
-      </c>
-      <c r="B700" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="C700" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="D700" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="E700" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="F700" t="n">
-        <v>162456.2196</v>
-      </c>
-      <c r="G700" t="n">
-        <v>-43305718.62604688</v>
-      </c>
-      <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L700" t="n">
-        <v>1</v>
-      </c>
-      <c r="M700" t="inlineStr"/>
-    </row>
-    <row r="701">
-      <c r="A701" s="1" t="n">
-        <v>699</v>
-      </c>
-      <c r="B701" t="n">
-        <v>3.097</v>
-      </c>
-      <c r="C701" t="n">
-        <v>3.097</v>
-      </c>
-      <c r="D701" t="n">
-        <v>3.097</v>
-      </c>
-      <c r="E701" t="n">
-        <v>3.097</v>
-      </c>
-      <c r="F701" t="n">
-        <v>94262.57030000001</v>
-      </c>
-      <c r="G701" t="n">
-        <v>-43399981.19634688</v>
-      </c>
-      <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L701" t="n">
-        <v>1</v>
-      </c>
-      <c r="M701" t="inlineStr"/>
-    </row>
-    <row r="702">
-      <c r="A702" s="1" t="n">
-        <v>700</v>
-      </c>
-      <c r="B702" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="C702" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="D702" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="E702" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="F702" t="n">
-        <v>1553.0416</v>
-      </c>
-      <c r="G702" t="n">
-        <v>-43401534.23794688</v>
-      </c>
-      <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L702" t="n">
-        <v>1</v>
-      </c>
-      <c r="M702" t="inlineStr"/>
-    </row>
-    <row r="703">
-      <c r="A703" s="1" t="n">
-        <v>701</v>
-      </c>
-      <c r="B703" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="C703" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D703" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="E703" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="F703" t="n">
-        <v>16954.4608</v>
-      </c>
-      <c r="G703" t="n">
-        <v>-43418488.69874687</v>
-      </c>
-      <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L703" t="n">
-        <v>1</v>
-      </c>
-      <c r="M703" t="inlineStr"/>
-    </row>
-    <row r="704">
-      <c r="A704" s="1" t="n">
-        <v>702</v>
-      </c>
-      <c r="B704" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="C704" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D704" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="E704" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="F704" t="n">
-        <v>15660</v>
-      </c>
-      <c r="G704" t="n">
-        <v>-43418488.69874687</v>
-      </c>
-      <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L704" t="n">
-        <v>1</v>
-      </c>
-      <c r="M704" t="inlineStr"/>
-    </row>
-    <row r="705">
-      <c r="A705" s="1" t="n">
-        <v>703</v>
-      </c>
-      <c r="B705" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="C705" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="D705" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="E705" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="F705" t="n">
-        <v>29099.5919</v>
-      </c>
-      <c r="G705" t="n">
-        <v>-43418488.69874687</v>
-      </c>
-      <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C706" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D706" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E706" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F706" t="n">
-        <v>500</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-43417988.69874687</v>
-      </c>
-      <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="C707" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="D707" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="E707" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F707" t="n">
-        <v>1607.717041800643</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-43417988.69874687</v>
-      </c>
-      <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="C708" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="D708" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="E708" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="F708" t="n">
-        <v>19584.82124065406</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-43398403.87750622</v>
-      </c>
-      <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="C709" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="D709" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="E709" t="n">
-        <v>3.119</v>
-      </c>
-      <c r="F709" t="n">
-        <v>492701.358859346</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-42905702.51864687</v>
-      </c>
-      <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24197,7 +23867,7 @@
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24232,11 +23902,13 @@
         <v>-43038131.65934687</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>3.09</v>
+      </c>
       <c r="J711" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24275,7 +23947,7 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24314,7 +23986,7 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24349,11 +24021,13 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J714" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24388,11 +24062,13 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J715" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24427,11 +24103,13 @@
         <v>-43087191.65934687</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J716" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24466,11 +24144,13 @@
         <v>-43101062.20794687</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>3.098</v>
+      </c>
       <c r="J717" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24505,11 +24185,13 @@
         <v>-43001062.20794687</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>3.095</v>
+      </c>
       <c r="J718" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24544,11 +24226,13 @@
         <v>-43000485.28754687</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J719" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24583,11 +24267,13 @@
         <v>-42999075.28754687</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J720" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24622,11 +24308,13 @@
         <v>-42999075.28754687</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J721" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24661,11 +24349,13 @@
         <v>-42999075.28754687</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J722" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24700,11 +24390,13 @@
         <v>-42697110.92864687</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J723" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24739,11 +24431,13 @@
         <v>-43167100.66914687</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J724" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24778,11 +24472,13 @@
         <v>-43107100.66914687</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>3.1</v>
+      </c>
       <c r="J725" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24817,11 +24513,13 @@
         <v>-43105919.24254687</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J726" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24856,11 +24554,13 @@
         <v>-43129593.27034687</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>3.13</v>
+      </c>
       <c r="J727" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -24895,11 +24595,13 @@
         <v>-43138251.54194687</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>3.128</v>
+      </c>
       <c r="J728" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -24934,11 +24636,13 @@
         <v>-42928500.87384687</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>3.111</v>
+      </c>
       <c r="J729" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -24973,11 +24677,13 @@
         <v>-42928500.87384687</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J730" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -25012,11 +24718,13 @@
         <v>-42575647.36014687</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J731" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -25051,11 +24759,13 @@
         <v>-42587349.66434687</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J732" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -25090,11 +24800,13 @@
         <v>-42487349.66434687</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>3.12</v>
+      </c>
       <c r="J733" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -25133,7 +24845,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -25172,7 +24884,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -25211,7 +24923,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -25250,7 +24962,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25289,7 +25001,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25328,7 +25040,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25367,7 +25079,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25406,7 +25118,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25445,7 +25157,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25480,21 +25192,23 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3.03</v>
+        <v>3.087</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
+        <v>1.064322967282151</v>
+      </c>
+      <c r="M743" t="n">
+        <v>1.172240802675585</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -25519,17 +25233,11 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25558,17 +25266,11 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K745" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J745" t="inlineStr"/>
+      <c r="K745" t="inlineStr"/>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25597,17 +25299,11 @@
         <v>-40030382.57524884</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K746" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J746" t="inlineStr"/>
+      <c r="K746" t="inlineStr"/>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25636,17 +25332,11 @@
         <v>-40029280.68234885</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K747" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J747" t="inlineStr"/>
+      <c r="K747" t="inlineStr"/>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25675,17 +25365,11 @@
         <v>-37587125.38974885</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K748" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J748" t="inlineStr"/>
+      <c r="K748" t="inlineStr"/>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25714,17 +25398,11 @@
         <v>-38454528.86064885</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K749" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J749" t="inlineStr"/>
+      <c r="K749" t="inlineStr"/>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25756,14 +25434,8 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K750" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J750" t="inlineStr"/>
+      <c r="K750" t="inlineStr"/>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25795,14 +25467,8 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K751" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J751" t="inlineStr"/>
+      <c r="K751" t="inlineStr"/>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25834,14 +25500,8 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K752" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J752" t="inlineStr"/>
+      <c r="K752" t="inlineStr"/>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25873,14 +25533,8 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K753" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J753" t="inlineStr"/>
+      <c r="K753" t="inlineStr"/>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25912,14 +25566,8 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K754" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J754" t="inlineStr"/>
+      <c r="K754" t="inlineStr"/>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25951,14 +25599,8 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K755" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J755" t="inlineStr"/>
+      <c r="K755" t="inlineStr"/>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25990,14 +25632,8 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K756" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J756" t="inlineStr"/>
+      <c r="K756" t="inlineStr"/>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -26029,14 +25665,8 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K757" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J757" t="inlineStr"/>
+      <c r="K757" t="inlineStr"/>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -26068,14 +25698,8 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K758" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J758" t="inlineStr"/>
+      <c r="K758" t="inlineStr"/>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -26107,14 +25731,8 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K759" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J759" t="inlineStr"/>
+      <c r="K759" t="inlineStr"/>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -26146,14 +25764,8 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K760" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J760" t="inlineStr"/>
+      <c r="K760" t="inlineStr"/>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -26185,14 +25797,8 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K761" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J761" t="inlineStr"/>
+      <c r="K761" t="inlineStr"/>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -26224,14 +25830,8 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K762" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J762" t="inlineStr"/>
+      <c r="K762" t="inlineStr"/>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -26263,14 +25863,8 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K763" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J763" t="inlineStr"/>
+      <c r="K763" t="inlineStr"/>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -26302,14 +25896,8 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K764" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J764" t="inlineStr"/>
+      <c r="K764" t="inlineStr"/>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -26341,14 +25929,8 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K765" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J765" t="inlineStr"/>
+      <c r="K765" t="inlineStr"/>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -26380,14 +25962,8 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K766" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J766" t="inlineStr"/>
+      <c r="K766" t="inlineStr"/>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -26416,17 +25992,11 @@
         <v>-38853073.30890281</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J767" t="inlineStr"/>
+      <c r="K767" t="inlineStr"/>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26455,17 +26025,11 @@
         <v>-38853229.30890281</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J768" t="inlineStr"/>
+      <c r="K768" t="inlineStr"/>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26494,17 +26058,11 @@
         <v>-38799729.69580282</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K769" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J769" t="inlineStr"/>
+      <c r="K769" t="inlineStr"/>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26533,17 +26091,11 @@
         <v>-38810909.69580282</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K770" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J770" t="inlineStr"/>
+      <c r="K770" t="inlineStr"/>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26572,17 +26124,11 @@
         <v>-39297302.87406046</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K771" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J771" t="inlineStr"/>
+      <c r="K771" t="inlineStr"/>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26611,17 +26157,11 @@
         <v>-39297145.87406046</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K772" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J772" t="inlineStr"/>
+      <c r="K772" t="inlineStr"/>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26650,17 +26190,11 @@
         <v>-39297303.87406046</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K773" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J773" t="inlineStr"/>
+      <c r="K773" t="inlineStr"/>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26689,17 +26223,11 @@
         <v>-39154368.45456046</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K774" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J774" t="inlineStr"/>
+      <c r="K774" t="inlineStr"/>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26728,17 +26256,11 @@
         <v>-39154525.45456046</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K775" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J775" t="inlineStr"/>
+      <c r="K775" t="inlineStr"/>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26767,17 +26289,11 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K776" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J776" t="inlineStr"/>
+      <c r="K776" t="inlineStr"/>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26806,17 +26322,11 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H777" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K777" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J777" t="inlineStr"/>
+      <c r="K777" t="inlineStr"/>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26845,17 +26355,11 @@
         <v>-39130708.38756046</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K778" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J778" t="inlineStr"/>
+      <c r="K778" t="inlineStr"/>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26884,17 +26388,11 @@
         <v>-39070478.58756046</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K779" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J779" t="inlineStr"/>
+      <c r="K779" t="inlineStr"/>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26923,17 +26421,11 @@
         <v>-39021097.54056046</v>
       </c>
       <c r="H780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K780" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J780" t="inlineStr"/>
+      <c r="K780" t="inlineStr"/>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26962,17 +26454,11 @@
         <v>-39079000.87286046</v>
       </c>
       <c r="H781" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K781" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J781" t="inlineStr"/>
+      <c r="K781" t="inlineStr"/>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -27001,17 +26487,11 @@
         <v>-39041288.75056046</v>
       </c>
       <c r="H782" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K782" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J782" t="inlineStr"/>
+      <c r="K782" t="inlineStr"/>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -27040,17 +26520,11 @@
         <v>-39089163.44466046</v>
       </c>
       <c r="H783" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K783" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J783" t="inlineStr"/>
+      <c r="K783" t="inlineStr"/>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -27082,14 +26556,8 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K784" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J784" t="inlineStr"/>
+      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -27121,14 +26589,8 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K785" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J785" t="inlineStr"/>
+      <c r="K785" t="inlineStr"/>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -27160,14 +26622,8 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K786" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J786" t="inlineStr"/>
+      <c r="K786" t="inlineStr"/>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -27199,14 +26655,8 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K787" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J787" t="inlineStr"/>
+      <c r="K787" t="inlineStr"/>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -27238,14 +26688,8 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K788" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J788" t="inlineStr"/>
+      <c r="K788" t="inlineStr"/>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -27277,14 +26721,8 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K789" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J789" t="inlineStr"/>
+      <c r="K789" t="inlineStr"/>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -27316,14 +26754,8 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K790" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J790" t="inlineStr"/>
+      <c r="K790" t="inlineStr"/>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -27355,14 +26787,8 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K791" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J791" t="inlineStr"/>
+      <c r="K791" t="inlineStr"/>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -27394,14 +26820,8 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K792" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J792" t="inlineStr"/>
+      <c r="K792" t="inlineStr"/>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -27433,14 +26853,8 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K793" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J793" t="inlineStr"/>
+      <c r="K793" t="inlineStr"/>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -27472,14 +26886,8 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K794" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J794" t="inlineStr"/>
+      <c r="K794" t="inlineStr"/>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -27511,14 +26919,8 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K795" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J795" t="inlineStr"/>
+      <c r="K795" t="inlineStr"/>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -27550,14 +26952,8 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K796" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J796" t="inlineStr"/>
+      <c r="K796" t="inlineStr"/>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -27589,14 +26985,8 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K797" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J797" t="inlineStr"/>
+      <c r="K797" t="inlineStr"/>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27628,14 +27018,8 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K798" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J798" t="inlineStr"/>
+      <c r="K798" t="inlineStr"/>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27667,14 +27051,8 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K799" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J799" t="inlineStr"/>
+      <c r="K799" t="inlineStr"/>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27706,14 +27084,8 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K800" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J800" t="inlineStr"/>
+      <c r="K800" t="inlineStr"/>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27745,14 +27117,8 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K801" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J801" t="inlineStr"/>
+      <c r="K801" t="inlineStr"/>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27784,14 +27150,8 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K802" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J802" t="inlineStr"/>
+      <c r="K802" t="inlineStr"/>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27820,17 +27180,15 @@
         <v>-39565561.24996046</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
-      </c>
-      <c r="I803" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I803" t="n">
+        <v>3.146</v>
+      </c>
       <c r="J803" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K803" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.146</v>
+      </c>
+      <c r="K803" t="inlineStr"/>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27863,11 +27221,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>3.03</v>
+        <v>3.146</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L804" t="n">
@@ -27902,11 +27260,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>3.03</v>
+        <v>3.146</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L805" t="n">
@@ -27937,17 +27295,15 @@
         <v>-39600228.87516046</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
-      </c>
-      <c r="I806" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I806" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J806" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K806" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>3.15</v>
+      </c>
+      <c r="K806" t="inlineStr"/>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27976,15 +27332,17 @@
         <v>-39559054.90766045</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
-      </c>
-      <c r="I807" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I807" t="n">
+        <v>3.164</v>
+      </c>
       <c r="J807" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L807" t="n">
@@ -28015,15 +27373,17 @@
         <v>-39602107.79766046</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
-      </c>
-      <c r="I808" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I808" t="n">
+        <v>3.19</v>
+      </c>
       <c r="J808" t="n">
-        <v>3.03</v>
+        <v>3.15</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L808" t="n">
@@ -28057,14 +27417,8 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="n">
-        <v>3.03</v>
-      </c>
-      <c r="K809" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J809" t="inlineStr"/>
+      <c r="K809" t="inlineStr"/>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -28093,15 +27447,15 @@
         <v>-39683542.51146045</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
-      </c>
-      <c r="I810" t="inlineStr"/>
-      <c r="J810" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I810" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J810" t="inlineStr"/>
       <c r="K810" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="L810" t="n">
@@ -28132,12 +27486,12 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
-      </c>
-      <c r="I811" t="inlineStr"/>
-      <c r="J811" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I811" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J811" t="inlineStr"/>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28171,12 +27525,12 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
-      </c>
-      <c r="I812" t="inlineStr"/>
-      <c r="J812" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I812" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="J812" t="inlineStr"/>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28210,12 +27564,12 @@
         <v>-39801687.65146045</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
-      </c>
-      <c r="I813" t="inlineStr"/>
-      <c r="J813" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I813" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="J813" t="inlineStr"/>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28249,12 +27603,12 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
-      </c>
-      <c r="I814" t="inlineStr"/>
-      <c r="J814" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I814" t="n">
+        <v>3.163</v>
+      </c>
+      <c r="J814" t="inlineStr"/>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28288,12 +27642,12 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
-      </c>
-      <c r="I815" t="inlineStr"/>
-      <c r="J815" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I815" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J815" t="inlineStr"/>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28327,12 +27681,12 @@
         <v>-39858779.97566046</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
-      </c>
-      <c r="I816" t="inlineStr"/>
-      <c r="J816" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I816" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J816" t="inlineStr"/>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28366,12 +27720,12 @@
         <v>-39858622.97566046</v>
       </c>
       <c r="H817" t="n">
-        <v>0</v>
-      </c>
-      <c r="I817" t="inlineStr"/>
-      <c r="J817" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I817" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="J817" t="inlineStr"/>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28405,12 +27759,12 @@
         <v>-39903678.32566046</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
-      </c>
-      <c r="I818" t="inlineStr"/>
-      <c r="J818" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I818" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J818" t="inlineStr"/>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28444,12 +27798,12 @@
         <v>-39860913.74396046</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
-      </c>
-      <c r="I819" t="inlineStr"/>
-      <c r="J819" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I819" t="n">
+        <v>3.161</v>
+      </c>
+      <c r="J819" t="inlineStr"/>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28483,12 +27837,12 @@
         <v>-39547735.28416047</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
-      </c>
-      <c r="I820" t="inlineStr"/>
-      <c r="J820" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I820" t="n">
+        <v>3.169</v>
+      </c>
+      <c r="J820" t="inlineStr"/>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28522,12 +27876,12 @@
         <v>-39405619.95066047</v>
       </c>
       <c r="H821" t="n">
-        <v>0</v>
-      </c>
-      <c r="I821" t="inlineStr"/>
-      <c r="J821" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I821" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="J821" t="inlineStr"/>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28561,12 +27915,12 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
-      <c r="J822" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="J822" t="inlineStr"/>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28600,12 +27954,12 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
-      <c r="J823" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="J823" t="inlineStr"/>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28642,9 +27996,7 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J824" t="inlineStr"/>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28681,9 +28033,7 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J825" t="inlineStr"/>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28720,9 +28070,7 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J826" t="inlineStr"/>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28759,9 +28107,7 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J827" t="inlineStr"/>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28798,9 +28144,7 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J828" t="inlineStr"/>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28837,9 +28181,7 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J829" t="inlineStr"/>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28876,9 +28218,7 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J830" t="inlineStr"/>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28915,9 +28255,7 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J831" t="inlineStr"/>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28954,9 +28292,7 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J832" t="inlineStr"/>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28993,9 +28329,7 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J833" t="inlineStr"/>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29032,9 +28366,7 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J834" t="inlineStr"/>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29071,9 +28403,7 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J835" t="inlineStr"/>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29110,9 +28440,7 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J836" t="inlineStr"/>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29149,9 +28477,7 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J837" t="inlineStr"/>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29185,12 +28511,12 @@
         <v>-40723194.88626046</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
-      </c>
-      <c r="I838" t="inlineStr"/>
-      <c r="J838" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I838" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="J838" t="inlineStr"/>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29224,12 +28550,12 @@
         <v>-40810277.29626045</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
-      </c>
-      <c r="I839" t="inlineStr"/>
-      <c r="J839" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I839" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="J839" t="inlineStr"/>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29263,12 +28589,12 @@
         <v>-40616311.49856045</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
-      </c>
-      <c r="I840" t="inlineStr"/>
-      <c r="J840" t="n">
-        <v>3.03</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I840" t="n">
+        <v>3.164</v>
+      </c>
+      <c r="J840" t="inlineStr"/>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29305,9 +28631,7 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J841" t="inlineStr"/>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29344,9 +28668,7 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J842" t="inlineStr"/>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29383,9 +28705,7 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J843" t="inlineStr"/>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29422,9 +28742,7 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J844" t="inlineStr"/>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29461,9 +28779,7 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J845" t="inlineStr"/>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29500,9 +28816,7 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J846" t="inlineStr"/>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29539,9 +28853,7 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29578,9 +28890,7 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J848" t="inlineStr"/>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29617,9 +28927,7 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J849" t="inlineStr"/>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29656,9 +28964,7 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J850" t="inlineStr"/>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29695,9 +29001,7 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J851" t="inlineStr"/>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29734,9 +29038,7 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J852" t="inlineStr"/>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29773,9 +29075,7 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J853" t="inlineStr"/>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29812,9 +29112,7 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J854" t="inlineStr"/>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29851,9 +29149,7 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J855" t="inlineStr"/>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29890,9 +29186,7 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J856" t="inlineStr"/>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29929,9 +29223,7 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J857" t="inlineStr"/>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29968,9 +29260,7 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J858" t="inlineStr"/>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30007,9 +29297,7 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J859" t="inlineStr"/>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30046,9 +29334,7 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J860" t="inlineStr"/>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30085,9 +29371,7 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J861" t="inlineStr"/>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30124,9 +29408,7 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J862" t="inlineStr"/>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30163,9 +29445,7 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J863" t="inlineStr"/>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30202,9 +29482,7 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J864" t="inlineStr"/>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30241,9 +29519,7 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J865" t="inlineStr"/>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30280,9 +29556,7 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J866" t="inlineStr"/>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30319,9 +29593,7 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J867" t="inlineStr"/>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30358,9 +29630,7 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J868" t="inlineStr"/>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30397,9 +29667,7 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J869" t="inlineStr"/>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30436,9 +29704,7 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J870" t="inlineStr"/>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30475,9 +29741,7 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J871" t="inlineStr"/>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30514,9 +29778,7 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J872" t="inlineStr"/>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30553,9 +29815,7 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J873" t="inlineStr"/>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30592,9 +29852,7 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J874" t="inlineStr"/>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30631,9 +29889,7 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J875" t="inlineStr"/>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30670,9 +29926,7 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J876" t="inlineStr"/>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30709,9 +29963,7 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J877" t="inlineStr"/>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30748,9 +30000,7 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J878" t="inlineStr"/>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30787,9 +30037,7 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J879" t="inlineStr"/>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30826,9 +30074,7 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J880" t="inlineStr"/>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30865,9 +30111,7 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J881" t="inlineStr"/>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30904,9 +30148,7 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J882" t="inlineStr"/>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30943,9 +30185,7 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J883" t="inlineStr"/>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30982,9 +30222,7 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J884" t="inlineStr"/>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31021,9 +30259,7 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J885" t="inlineStr"/>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31060,9 +30296,7 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J886" t="inlineStr"/>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31099,9 +30333,7 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J887" t="inlineStr"/>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31138,9 +30370,7 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J888" t="inlineStr"/>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31177,9 +30407,7 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J889" t="inlineStr"/>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31216,9 +30444,7 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J890" t="inlineStr"/>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31255,9 +30481,7 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J891" t="inlineStr"/>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31294,9 +30518,7 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J892" t="inlineStr"/>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31333,9 +30555,7 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J893" t="inlineStr"/>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31372,9 +30592,7 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J894" t="inlineStr"/>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31411,9 +30629,7 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J895" t="inlineStr"/>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31450,9 +30666,7 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J896" t="inlineStr"/>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31489,9 +30703,7 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J897" t="inlineStr"/>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31528,9 +30740,7 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J898" t="inlineStr"/>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31567,9 +30777,7 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J899" t="inlineStr"/>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31606,9 +30814,7 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J900" t="inlineStr"/>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31645,9 +30851,7 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J901" t="inlineStr"/>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31684,9 +30888,7 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J902" t="inlineStr"/>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31723,9 +30925,7 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J903" t="inlineStr"/>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31762,9 +30962,7 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J904" t="inlineStr"/>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31801,9 +30999,7 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J905" t="inlineStr"/>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31840,9 +31036,7 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J906" t="inlineStr"/>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31879,9 +31073,7 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J907" t="inlineStr"/>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31918,9 +31110,7 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J908" t="inlineStr"/>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31957,9 +31147,7 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J909" t="inlineStr"/>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31996,9 +31184,7 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J910" t="inlineStr"/>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32035,9 +31221,7 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J911" t="inlineStr"/>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32074,9 +31258,7 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J912" t="inlineStr"/>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32113,9 +31295,7 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J913" t="inlineStr"/>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32152,9 +31332,7 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J914" t="inlineStr"/>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32191,9 +31369,7 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J915" t="inlineStr"/>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32230,9 +31406,7 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J916" t="inlineStr"/>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32269,9 +31443,7 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="n">
-        <v>3.03</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -32283,6 +31455,6 @@
       <c r="M917" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest CON.xlsx
+++ b/BackTest/2020-01-16 BackTest CON.xlsx
@@ -451,7 +451,7 @@
         <v>604585.3884000002</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>666161.0334000002</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>620484.6876000002</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>691572.0176000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>265135.5525000002</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>321705.0475000002</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>443305.2925000002</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>371717.3475000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>414269.6225000002</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>450245.8185000002</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>310705.6796000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>354259.1846000002</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>283672.4696000002</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>226602.3596000002</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>190558.0796000002</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>45880.34460000021</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>90435.07960000022</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>35868.04460000021</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>95941.84460000021</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>46881.57460000022</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-176.2353999997795</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>37369.88960000022</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>-10795.10739999978</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-73208.86399999978</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-9130.143999999782</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-47677.49899999979</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>29417.21100000022</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-22146.13399999978</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>51444.27100000022</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>114021.1460000002</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>48941.19600000021</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-25021.66699999978</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-302994.1296999998</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-598375.1457999998</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-656446.4857999998</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-624407.1257999998</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-565257.7888999998</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-620325.4388999998</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-1395727.0855</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-1474323.6405</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>-1593970.6255</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-1525386.3705</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3621116.7163</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3563545.991299999</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3522735.8563</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3590819.4963</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3614348.4013</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3534693.7922</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3482629.8322</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3369406.4242</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3312836.9292</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3353887.3592</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3466025.1192</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-3508577.3942</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3508120.833199999</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3543664.498199999</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3507119.603199999</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3550673.108199999</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3480086.393199999</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3423016.283199999</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3347423.418199999</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3416508.288199999</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3338912.963199999</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3383467.698199999</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3438722.801999999</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-3378649.001999999</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3329588.731999999</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-3376646.541999999</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-3433291.864499999</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3385733.439499999</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-3449812.1595</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-3334170.0945</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-3386550.4435</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-3312960.0385</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-3185303.2135</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-3112213.4235</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-3171285.993499999</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-3146313.506199999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3192370.086199999</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-3134298.746199999</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-3166338.106199999</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-3197376.236199999</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-3142308.586199999</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-3209891.611199999</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-3158828.881199999</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-3052197.886199999</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-3082735.401199999</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-3049194.196199999</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-3083736.631199999</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-3046691.121199999</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-3089744.0112</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-3017655.4512</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-3066139.013199999</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-2805873.197859058</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-2697740.357859058</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-2669168.92928763</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-2726739.65428763</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-2681684.30428763</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-2640133.25928763</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-2587568.68428763</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-2649644.944287629</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-2615603.12428763</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-2718729.814287629</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-2674675.694287629</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-2614101.279287629</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2540010.259287629</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-2661159.089287629</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2722234.119287629</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-2646140.639287629</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2539509.644287629</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-2606592.054287629</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2542012.719287629</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-2486444.454287629</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-2546017.639287629</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-2599082.829287629</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-2737753.184287629</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2673346.764287629</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-2928352.164087629</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2872283.284087629</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-2821721.169087629</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2899817.109087629</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-2846251.304087629</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-2878791.279087629</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-2942369.384087629</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-3004894.195087629</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-2939313.630087629</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2991377.590087629</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-2941816.705087629</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-2983868.365087629</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-2907274.270087629</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2976859.755087629</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3025419.410087629</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2992378.820087629</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-3042440.320087629</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3080487.060087629</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-3010400.960087629</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-2930803.175087629</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-3471162.441287629</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-3392065.271287629</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2951929.971287629</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3009012.096287629</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-2967961.666287629</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-3008511.481287629</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3080099.426287629</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-3037547.151287629</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>-3002003.486287629</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>-3196163.825887629</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>-3152610.320887629</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>-3082023.605887629</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>-3139093.715887629</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>-3103049.435887629</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>-3247727.170887629</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-3180144.145887629</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-3240794.653887629</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-3611797.539787629</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-3387718.131787629</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-3393224.896787629</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-3354677.541787629</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3277582.83178763</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-3276581.60178763</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-3328144.94678763</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-3111362.87618763</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-3173939.75118763</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-3146706.54118763</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3146506.54118763</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-3265152.296187629</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-3492752.299587629</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-3388624.379587629</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-3353881.944587629</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-3390927.454587629</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-3347001.737587628</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-3419090.297587628</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-3371031.257587628</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-3529726.212587629</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-3490177.627587629</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-3558761.882587628</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-3501191.157587628</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-3546246.507587628</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-3504695.462587629</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-3566771.722587628</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-3464646.262587628</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-3753265.995787628</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-3709211.875787628</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-3769786.290787628</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-3737746.930787629</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-3706208.185787629</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-5210558.284387629</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5143475.874387628</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-4798150.518487629</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>-4720054.578487628</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>-4773620.383487628</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>-4741080.408487628</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>-4804658.513487629</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>-4867736.003487629</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-4815672.043487629</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>-4766111.158487629</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>-4808162.818487629</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>-4426509.083187629</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>-4496094.56818763</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-4544654.22318763</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-4511613.63318763</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-4733184.70538763</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-4695137.96538763</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-4765224.06538763</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-4685626.28038763</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-4606529.11038763</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-4648277.08038763</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-4647277.08038763</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-4574989.750387629</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-4690239.24538763</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-4894072.77998763</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-4852745.60668763</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-4811572.46168763</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-4883160.40668763</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-4840608.13168763</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-4876151.79668763</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-4912696.69168763</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-4869143.18668763</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-4798556.47168763</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-4796433.21498763</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-4609828.47628763</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-4707841.341287631</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-4638756.47128763</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-4716351.796287631</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -10714,7 +10714,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -10747,7 +10747,7 @@
         <v>-4770918.831287631</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -10780,7 +10780,7 @@
         <v>-4721858.561287631</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -10813,7 +10813,7 @@
         <v>-4637054.626287632</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-4684613.051287632</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-4807263.726287631</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10912,7 +10912,7 @@
         <v>-4910750.289187632</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-5260624.656287632</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -10978,7 +10978,7 @@
         <v>-5312188.001287632</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11011,7 +11011,7 @@
         <v>-5238597.596287631</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11044,7 +11044,7 @@
         <v>-6373081.141787631</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-6308001.191787631</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-6381090.981787631</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-6506039.529687631</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-7961932.937687631</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -23386,10 +23386,14 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
-      </c>
-      <c r="I697" t="inlineStr"/>
-      <c r="J697" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I697" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="J697" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
@@ -23419,11 +23423,19 @@
         <v>-43283455.41304688</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
-      </c>
-      <c r="I698" t="inlineStr"/>
-      <c r="J698" t="inlineStr"/>
-      <c r="K698" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I698" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J698" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K698" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -23452,11 +23464,19 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
-      <c r="K699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="J699" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K699" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -23485,11 +23505,19 @@
         <v>-43305718.62604688</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J700" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23518,11 +23546,19 @@
         <v>-43399981.19634688</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J701" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23551,11 +23587,19 @@
         <v>-43401534.23794688</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
-      <c r="K702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>3.097</v>
+      </c>
+      <c r="J702" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K702" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -23590,9 +23634,13 @@
         <v>3.093</v>
       </c>
       <c r="J703" t="n">
-        <v>3.093</v>
-      </c>
-      <c r="K703" t="inlineStr"/>
+        <v>3.115</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23627,11 +23675,11 @@
         <v>3.087</v>
       </c>
       <c r="J704" t="n">
-        <v>3.093</v>
+        <v>3.115</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L704" t="n">
@@ -23668,11 +23716,11 @@
         <v>3.087</v>
       </c>
       <c r="J705" t="n">
-        <v>3.093</v>
+        <v>3.115</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L705" t="n">
@@ -23709,9 +23757,13 @@
         <v>3.087</v>
       </c>
       <c r="J706" t="n">
-        <v>3.087</v>
-      </c>
-      <c r="K706" t="inlineStr"/>
+        <v>3.115</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -23746,11 +23798,11 @@
         <v>3.11</v>
       </c>
       <c r="J707" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L707" t="n">
@@ -23787,11 +23839,11 @@
         <v>3.11</v>
       </c>
       <c r="J708" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L708" t="n">
@@ -23828,11 +23880,11 @@
         <v>3.119</v>
       </c>
       <c r="J709" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L709" t="n">
@@ -23863,11 +23915,13 @@
         <v>-43038301.65934687</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>3.15</v>
+      </c>
       <c r="J710" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -23908,7 +23962,7 @@
         <v>3.09</v>
       </c>
       <c r="J711" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -23943,11 +23997,13 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>3.14</v>
+      </c>
       <c r="J712" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -23982,11 +24038,13 @@
         <v>-43077281.65934687</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>3.11</v>
+      </c>
       <c r="J713" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24027,7 +24085,7 @@
         <v>3.11</v>
       </c>
       <c r="J714" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24068,7 +24126,7 @@
         <v>3.11</v>
       </c>
       <c r="J715" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24109,7 +24167,7 @@
         <v>3.11</v>
       </c>
       <c r="J716" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24150,7 +24208,7 @@
         <v>3.098</v>
       </c>
       <c r="J717" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24191,7 +24249,7 @@
         <v>3.095</v>
       </c>
       <c r="J718" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24232,7 +24290,7 @@
         <v>3.1</v>
       </c>
       <c r="J719" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24273,7 +24331,7 @@
         <v>3.11</v>
       </c>
       <c r="J720" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24314,7 +24372,7 @@
         <v>3.14</v>
       </c>
       <c r="J721" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24355,7 +24413,7 @@
         <v>3.14</v>
       </c>
       <c r="J722" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24396,7 +24454,7 @@
         <v>3.14</v>
       </c>
       <c r="J723" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24437,7 +24495,7 @@
         <v>3.15</v>
       </c>
       <c r="J724" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24478,7 +24536,7 @@
         <v>3.1</v>
       </c>
       <c r="J725" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24519,7 +24577,7 @@
         <v>3.111</v>
       </c>
       <c r="J726" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24560,7 +24618,7 @@
         <v>3.13</v>
       </c>
       <c r="J727" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K727" t="inlineStr">
         <is>
@@ -24595,13 +24653,11 @@
         <v>-43138251.54194687</v>
       </c>
       <c r="H728" t="n">
-        <v>1</v>
-      </c>
-      <c r="I728" t="n">
-        <v>3.128</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
       <c r="J728" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K728" t="inlineStr">
         <is>
@@ -24642,7 +24698,7 @@
         <v>3.111</v>
       </c>
       <c r="J729" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K729" t="inlineStr">
         <is>
@@ -24683,7 +24739,7 @@
         <v>3.14</v>
       </c>
       <c r="J730" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K730" t="inlineStr">
         <is>
@@ -24718,13 +24774,11 @@
         <v>-42575647.36014687</v>
       </c>
       <c r="H731" t="n">
-        <v>1</v>
-      </c>
-      <c r="I731" t="n">
-        <v>3.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
       <c r="J731" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K731" t="inlineStr">
         <is>
@@ -24759,13 +24813,11 @@
         <v>-42587349.66434687</v>
       </c>
       <c r="H732" t="n">
-        <v>1</v>
-      </c>
-      <c r="I732" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
       <c r="J732" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K732" t="inlineStr">
         <is>
@@ -24800,13 +24852,11 @@
         <v>-42487349.66434687</v>
       </c>
       <c r="H733" t="n">
-        <v>1</v>
-      </c>
-      <c r="I733" t="n">
-        <v>3.12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
       <c r="J733" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K733" t="inlineStr">
         <is>
@@ -24845,7 +24895,7 @@
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K734" t="inlineStr">
         <is>
@@ -24884,7 +24934,7 @@
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K735" t="inlineStr">
         <is>
@@ -24923,7 +24973,7 @@
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K736" t="inlineStr">
         <is>
@@ -24962,7 +25012,7 @@
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K737" t="inlineStr">
         <is>
@@ -25001,7 +25051,7 @@
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K738" t="inlineStr">
         <is>
@@ -25040,7 +25090,7 @@
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K739" t="inlineStr">
         <is>
@@ -25079,7 +25129,7 @@
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K740" t="inlineStr">
         <is>
@@ -25118,7 +25168,7 @@
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K741" t="inlineStr">
         <is>
@@ -25157,7 +25207,7 @@
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K742" t="inlineStr">
         <is>
@@ -25192,23 +25242,21 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="n">
-        <v>3.087</v>
+        <v>3.115</v>
       </c>
       <c r="K743" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L743" t="n">
-        <v>1.064322967282151</v>
-      </c>
-      <c r="M743" t="n">
-        <v>1.172240802675585</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
     </row>
     <row r="744">
       <c r="A744" s="1" t="n">
@@ -25233,11 +25281,17 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="J744" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25266,11 +25320,17 @@
         <v>-40157001.83444884</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="J745" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25299,11 +25359,17 @@
         <v>-40030382.57524884</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="J746" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25332,11 +25398,17 @@
         <v>-40029280.68234885</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="J747" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25365,11 +25437,17 @@
         <v>-37587125.38974885</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="J748" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25398,11 +25476,17 @@
         <v>-38454528.86064885</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="J749" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25434,8 +25518,14 @@
         <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="J750" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25467,8 +25557,14 @@
         <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="J751" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -25500,8 +25596,14 @@
         <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="J752" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -25533,8 +25635,14 @@
         <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="J753" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -25566,8 +25674,14 @@
         <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="J754" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -25599,8 +25713,14 @@
         <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
+      <c r="J755" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L755" t="n">
         <v>1</v>
       </c>
@@ -25632,8 +25752,14 @@
         <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="J756" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25665,8 +25791,14 @@
         <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="J757" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25698,8 +25830,14 @@
         <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="J758" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25731,8 +25869,14 @@
         <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="J759" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25764,8 +25908,14 @@
         <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="J760" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25797,8 +25947,14 @@
         <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="J761" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25830,8 +25986,14 @@
         <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="J762" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25863,8 +26025,14 @@
         <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="J763" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25896,8 +26064,14 @@
         <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="J764" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25929,8 +26103,14 @@
         <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="J765" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25962,8 +26142,14 @@
         <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
-      <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="J766" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25992,11 +26178,17 @@
         <v>-38853073.30890281</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
-      <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="J767" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -26025,11 +26217,17 @@
         <v>-38853229.30890281</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
-      <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="J768" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -26058,11 +26256,17 @@
         <v>-38799729.69580282</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="J769" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -26091,11 +26295,17 @@
         <v>-38810909.69580282</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="J770" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -26124,11 +26334,17 @@
         <v>-39297302.87406046</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="J771" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -26157,11 +26373,17 @@
         <v>-39297145.87406046</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="J772" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26190,11 +26412,17 @@
         <v>-39297303.87406046</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="J773" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26223,11 +26451,17 @@
         <v>-39154368.45456046</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="J774" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26256,11 +26490,17 @@
         <v>-39154525.45456046</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="J775" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26289,11 +26529,17 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="J776" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26322,11 +26568,17 @@
         <v>-39076141.35256046</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="J777" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26355,11 +26607,17 @@
         <v>-39130708.38756046</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26388,11 +26646,17 @@
         <v>-39070478.58756046</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="J779" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26421,11 +26685,17 @@
         <v>-39021097.54056046</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="J780" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26454,11 +26724,17 @@
         <v>-39079000.87286046</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="J781" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26487,11 +26763,17 @@
         <v>-39041288.75056046</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26520,11 +26802,17 @@
         <v>-39089163.44466046</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26556,8 +26844,14 @@
         <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26589,8 +26883,14 @@
         <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
-      <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="J785" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26622,8 +26922,14 @@
         <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
-      <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="J786" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26655,8 +26961,14 @@
         <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
-      <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="J787" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26688,8 +27000,14 @@
         <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
-      <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="J788" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26721,8 +27039,14 @@
         <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
-      <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="J789" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26754,8 +27078,14 @@
         <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
-      <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="J790" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26787,8 +27117,14 @@
         <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
-      <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="J791" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26820,8 +27156,14 @@
         <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
-      <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="J792" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26853,8 +27195,14 @@
         <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
-      <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="J793" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26886,8 +27234,14 @@
         <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
-      <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="J794" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26919,8 +27273,14 @@
         <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
-      <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="J795" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
@@ -26952,8 +27312,14 @@
         <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
-      <c r="J796" t="inlineStr"/>
-      <c r="K796" t="inlineStr"/>
+      <c r="J796" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K796" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L796" t="n">
         <v>1</v>
       </c>
@@ -26985,8 +27351,14 @@
         <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
-      <c r="J797" t="inlineStr"/>
-      <c r="K797" t="inlineStr"/>
+      <c r="J797" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K797" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L797" t="n">
         <v>1</v>
       </c>
@@ -27018,8 +27390,14 @@
         <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
-      <c r="J798" t="inlineStr"/>
-      <c r="K798" t="inlineStr"/>
+      <c r="J798" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K798" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L798" t="n">
         <v>1</v>
       </c>
@@ -27051,8 +27429,14 @@
         <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
-      <c r="J799" t="inlineStr"/>
-      <c r="K799" t="inlineStr"/>
+      <c r="J799" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K799" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L799" t="n">
         <v>1</v>
       </c>
@@ -27084,8 +27468,14 @@
         <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
-      <c r="J800" t="inlineStr"/>
-      <c r="K800" t="inlineStr"/>
+      <c r="J800" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K800" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L800" t="n">
         <v>1</v>
       </c>
@@ -27117,8 +27507,14 @@
         <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
-      <c r="J801" t="inlineStr"/>
-      <c r="K801" t="inlineStr"/>
+      <c r="J801" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K801" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L801" t="n">
         <v>1</v>
       </c>
@@ -27150,8 +27546,14 @@
         <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
-      <c r="J802" t="inlineStr"/>
-      <c r="K802" t="inlineStr"/>
+      <c r="J802" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K802" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L802" t="n">
         <v>1</v>
       </c>
@@ -27180,15 +27582,17 @@
         <v>-39565561.24996046</v>
       </c>
       <c r="H803" t="n">
-        <v>1</v>
-      </c>
-      <c r="I803" t="n">
-        <v>3.146</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I803" t="inlineStr"/>
       <c r="J803" t="n">
-        <v>3.146</v>
-      </c>
-      <c r="K803" t="inlineStr"/>
+        <v>3.115</v>
+      </c>
+      <c r="K803" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L803" t="n">
         <v>1</v>
       </c>
@@ -27221,11 +27625,11 @@
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="n">
-        <v>3.146</v>
+        <v>3.115</v>
       </c>
       <c r="K804" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L804" t="n">
@@ -27260,11 +27664,11 @@
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="n">
-        <v>3.146</v>
+        <v>3.115</v>
       </c>
       <c r="K805" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L805" t="n">
@@ -27295,15 +27699,17 @@
         <v>-39600228.87516046</v>
       </c>
       <c r="H806" t="n">
-        <v>1</v>
-      </c>
-      <c r="I806" t="n">
-        <v>3.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I806" t="inlineStr"/>
       <c r="J806" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K806" t="inlineStr"/>
+        <v>3.115</v>
+      </c>
+      <c r="K806" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L806" t="n">
         <v>1</v>
       </c>
@@ -27332,17 +27738,15 @@
         <v>-39559054.90766045</v>
       </c>
       <c r="H807" t="n">
-        <v>1</v>
-      </c>
-      <c r="I807" t="n">
-        <v>3.164</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I807" t="inlineStr"/>
       <c r="J807" t="n">
-        <v>3.15</v>
+        <v>3.115</v>
       </c>
       <c r="K807" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L807" t="n">
@@ -27373,17 +27777,15 @@
         <v>-39602107.79766046</v>
       </c>
       <c r="H808" t="n">
-        <v>1</v>
-      </c>
-      <c r="I808" t="n">
-        <v>3.19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I808" t="inlineStr"/>
       <c r="J808" t="n">
-        <v>3.15</v>
+        <v>3.115</v>
       </c>
       <c r="K808" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L808" t="n">
@@ -27417,8 +27819,14 @@
         <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
-      <c r="J809" t="inlineStr"/>
-      <c r="K809" t="inlineStr"/>
+      <c r="J809" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="K809" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L809" t="n">
         <v>1</v>
       </c>
@@ -27447,15 +27855,15 @@
         <v>-39683542.51146045</v>
       </c>
       <c r="H810" t="n">
-        <v>1</v>
-      </c>
-      <c r="I810" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J810" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I810" t="inlineStr"/>
+      <c r="J810" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K810" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L810" t="n">
@@ -27486,12 +27894,12 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H811" t="n">
-        <v>1</v>
-      </c>
-      <c r="I811" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J811" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I811" t="inlineStr"/>
+      <c r="J811" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K811" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27525,12 +27933,12 @@
         <v>-39762139.06646045</v>
       </c>
       <c r="H812" t="n">
-        <v>1</v>
-      </c>
-      <c r="I812" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J812" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I812" t="inlineStr"/>
+      <c r="J812" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K812" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27564,12 +27972,12 @@
         <v>-39801687.65146045</v>
       </c>
       <c r="H813" t="n">
-        <v>1</v>
-      </c>
-      <c r="I813" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J813" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I813" t="inlineStr"/>
+      <c r="J813" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K813" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27603,12 +28011,12 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H814" t="n">
-        <v>1</v>
-      </c>
-      <c r="I814" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="J814" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I814" t="inlineStr"/>
+      <c r="J814" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K814" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27642,12 +28050,12 @@
         <v>-39801209.25066046</v>
       </c>
       <c r="H815" t="n">
-        <v>1</v>
-      </c>
-      <c r="I815" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J815" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I815" t="inlineStr"/>
+      <c r="J815" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K815" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27681,12 +28089,12 @@
         <v>-39858779.97566046</v>
       </c>
       <c r="H816" t="n">
-        <v>1</v>
-      </c>
-      <c r="I816" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J816" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I816" t="inlineStr"/>
+      <c r="J816" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K816" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27720,12 +28128,12 @@
         <v>-39858622.97566046</v>
       </c>
       <c r="H817" t="n">
-        <v>1</v>
-      </c>
-      <c r="I817" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J817" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I817" t="inlineStr"/>
+      <c r="J817" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K817" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27759,12 +28167,12 @@
         <v>-39903678.32566046</v>
       </c>
       <c r="H818" t="n">
-        <v>1</v>
-      </c>
-      <c r="I818" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J818" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I818" t="inlineStr"/>
+      <c r="J818" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K818" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27798,12 +28206,12 @@
         <v>-39860913.74396046</v>
       </c>
       <c r="H819" t="n">
-        <v>1</v>
-      </c>
-      <c r="I819" t="n">
-        <v>3.161</v>
-      </c>
-      <c r="J819" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I819" t="inlineStr"/>
+      <c r="J819" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K819" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27837,12 +28245,12 @@
         <v>-39547735.28416047</v>
       </c>
       <c r="H820" t="n">
-        <v>1</v>
-      </c>
-      <c r="I820" t="n">
-        <v>3.169</v>
-      </c>
-      <c r="J820" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I820" t="inlineStr"/>
+      <c r="J820" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K820" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27876,12 +28284,12 @@
         <v>-39405619.95066047</v>
       </c>
       <c r="H821" t="n">
-        <v>1</v>
-      </c>
-      <c r="I821" t="n">
-        <v>3.17</v>
-      </c>
-      <c r="J821" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I821" t="inlineStr"/>
+      <c r="J821" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K821" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27915,12 +28323,12 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>3.184</v>
-      </c>
-      <c r="J822" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
+      <c r="J822" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K822" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27954,12 +28362,12 @@
         <v>-39403416.75556047</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>3.216</v>
-      </c>
-      <c r="J823" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
+      <c r="J823" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K823" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -27996,7 +28404,9 @@
         <v>0</v>
       </c>
       <c r="I824" t="inlineStr"/>
-      <c r="J824" t="inlineStr"/>
+      <c r="J824" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K824" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28033,7 +28443,9 @@
         <v>0</v>
       </c>
       <c r="I825" t="inlineStr"/>
-      <c r="J825" t="inlineStr"/>
+      <c r="J825" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K825" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28070,7 +28482,9 @@
         <v>0</v>
       </c>
       <c r="I826" t="inlineStr"/>
-      <c r="J826" t="inlineStr"/>
+      <c r="J826" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K826" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28107,7 +28521,9 @@
         <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
-      <c r="J827" t="inlineStr"/>
+      <c r="J827" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K827" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28144,7 +28560,9 @@
         <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
-      <c r="J828" t="inlineStr"/>
+      <c r="J828" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K828" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28181,7 +28599,9 @@
         <v>0</v>
       </c>
       <c r="I829" t="inlineStr"/>
-      <c r="J829" t="inlineStr"/>
+      <c r="J829" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K829" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28218,7 +28638,9 @@
         <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
-      <c r="J830" t="inlineStr"/>
+      <c r="J830" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K830" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28255,7 +28677,9 @@
         <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
-      <c r="J831" t="inlineStr"/>
+      <c r="J831" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K831" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28292,7 +28716,9 @@
         <v>0</v>
       </c>
       <c r="I832" t="inlineStr"/>
-      <c r="J832" t="inlineStr"/>
+      <c r="J832" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K832" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28329,7 +28755,9 @@
         <v>0</v>
       </c>
       <c r="I833" t="inlineStr"/>
-      <c r="J833" t="inlineStr"/>
+      <c r="J833" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K833" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28366,7 +28794,9 @@
         <v>0</v>
       </c>
       <c r="I834" t="inlineStr"/>
-      <c r="J834" t="inlineStr"/>
+      <c r="J834" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K834" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28403,7 +28833,9 @@
         <v>0</v>
       </c>
       <c r="I835" t="inlineStr"/>
-      <c r="J835" t="inlineStr"/>
+      <c r="J835" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K835" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28440,7 +28872,9 @@
         <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
-      <c r="J836" t="inlineStr"/>
+      <c r="J836" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K836" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28477,7 +28911,9 @@
         <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
-      <c r="J837" t="inlineStr"/>
+      <c r="J837" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K837" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28511,12 +28947,12 @@
         <v>-40723194.88626046</v>
       </c>
       <c r="H838" t="n">
-        <v>1</v>
-      </c>
-      <c r="I838" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J838" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I838" t="inlineStr"/>
+      <c r="J838" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K838" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28550,12 +28986,12 @@
         <v>-40810277.29626045</v>
       </c>
       <c r="H839" t="n">
-        <v>1</v>
-      </c>
-      <c r="I839" t="n">
-        <v>3.168</v>
-      </c>
-      <c r="J839" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I839" t="inlineStr"/>
+      <c r="J839" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K839" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28589,12 +29025,12 @@
         <v>-40616311.49856045</v>
       </c>
       <c r="H840" t="n">
-        <v>1</v>
-      </c>
-      <c r="I840" t="n">
-        <v>3.164</v>
-      </c>
-      <c r="J840" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I840" t="inlineStr"/>
+      <c r="J840" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K840" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28631,7 +29067,9 @@
         <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
-      <c r="J841" t="inlineStr"/>
+      <c r="J841" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K841" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28668,7 +29106,9 @@
         <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
-      <c r="J842" t="inlineStr"/>
+      <c r="J842" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K842" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28705,7 +29145,9 @@
         <v>0</v>
       </c>
       <c r="I843" t="inlineStr"/>
-      <c r="J843" t="inlineStr"/>
+      <c r="J843" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K843" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28742,7 +29184,9 @@
         <v>0</v>
       </c>
       <c r="I844" t="inlineStr"/>
-      <c r="J844" t="inlineStr"/>
+      <c r="J844" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K844" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28779,7 +29223,9 @@
         <v>0</v>
       </c>
       <c r="I845" t="inlineStr"/>
-      <c r="J845" t="inlineStr"/>
+      <c r="J845" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K845" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28816,7 +29262,9 @@
         <v>0</v>
       </c>
       <c r="I846" t="inlineStr"/>
-      <c r="J846" t="inlineStr"/>
+      <c r="J846" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K846" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28853,7 +29301,9 @@
         <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
-      <c r="J847" t="inlineStr"/>
+      <c r="J847" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K847" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28890,7 +29340,9 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="inlineStr"/>
+      <c r="J848" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K848" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28927,7 +29379,9 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="inlineStr"/>
+      <c r="J849" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K849" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -28964,7 +29418,9 @@
         <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
-      <c r="J850" t="inlineStr"/>
+      <c r="J850" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K850" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29001,7 +29457,9 @@
         <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
-      <c r="J851" t="inlineStr"/>
+      <c r="J851" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K851" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29038,7 +29496,9 @@
         <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
-      <c r="J852" t="inlineStr"/>
+      <c r="J852" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K852" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29075,7 +29535,9 @@
         <v>0</v>
       </c>
       <c r="I853" t="inlineStr"/>
-      <c r="J853" t="inlineStr"/>
+      <c r="J853" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K853" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29112,7 +29574,9 @@
         <v>0</v>
       </c>
       <c r="I854" t="inlineStr"/>
-      <c r="J854" t="inlineStr"/>
+      <c r="J854" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K854" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29149,7 +29613,9 @@
         <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
-      <c r="J855" t="inlineStr"/>
+      <c r="J855" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K855" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29186,7 +29652,9 @@
         <v>0</v>
       </c>
       <c r="I856" t="inlineStr"/>
-      <c r="J856" t="inlineStr"/>
+      <c r="J856" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K856" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29223,7 +29691,9 @@
         <v>0</v>
       </c>
       <c r="I857" t="inlineStr"/>
-      <c r="J857" t="inlineStr"/>
+      <c r="J857" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K857" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29260,7 +29730,9 @@
         <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
-      <c r="J858" t="inlineStr"/>
+      <c r="J858" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K858" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29297,7 +29769,9 @@
         <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
-      <c r="J859" t="inlineStr"/>
+      <c r="J859" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K859" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29334,7 +29808,9 @@
         <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
-      <c r="J860" t="inlineStr"/>
+      <c r="J860" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K860" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29371,7 +29847,9 @@
         <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
-      <c r="J861" t="inlineStr"/>
+      <c r="J861" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K861" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29408,7 +29886,9 @@
         <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
-      <c r="J862" t="inlineStr"/>
+      <c r="J862" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K862" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29445,7 +29925,9 @@
         <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
-      <c r="J863" t="inlineStr"/>
+      <c r="J863" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K863" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29482,7 +29964,9 @@
         <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
-      <c r="J864" t="inlineStr"/>
+      <c r="J864" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K864" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29519,7 +30003,9 @@
         <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
-      <c r="J865" t="inlineStr"/>
+      <c r="J865" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K865" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29556,7 +30042,9 @@
         <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
-      <c r="J866" t="inlineStr"/>
+      <c r="J866" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K866" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29593,7 +30081,9 @@
         <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
-      <c r="J867" t="inlineStr"/>
+      <c r="J867" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K867" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29630,7 +30120,9 @@
         <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
-      <c r="J868" t="inlineStr"/>
+      <c r="J868" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K868" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29667,7 +30159,9 @@
         <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
-      <c r="J869" t="inlineStr"/>
+      <c r="J869" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K869" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29704,7 +30198,9 @@
         <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
-      <c r="J870" t="inlineStr"/>
+      <c r="J870" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K870" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29741,7 +30237,9 @@
         <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
-      <c r="J871" t="inlineStr"/>
+      <c r="J871" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K871" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29778,7 +30276,9 @@
         <v>0</v>
       </c>
       <c r="I872" t="inlineStr"/>
-      <c r="J872" t="inlineStr"/>
+      <c r="J872" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K872" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29815,7 +30315,9 @@
         <v>0</v>
       </c>
       <c r="I873" t="inlineStr"/>
-      <c r="J873" t="inlineStr"/>
+      <c r="J873" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K873" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29852,7 +30354,9 @@
         <v>0</v>
       </c>
       <c r="I874" t="inlineStr"/>
-      <c r="J874" t="inlineStr"/>
+      <c r="J874" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K874" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29889,7 +30393,9 @@
         <v>0</v>
       </c>
       <c r="I875" t="inlineStr"/>
-      <c r="J875" t="inlineStr"/>
+      <c r="J875" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K875" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29926,7 +30432,9 @@
         <v>0</v>
       </c>
       <c r="I876" t="inlineStr"/>
-      <c r="J876" t="inlineStr"/>
+      <c r="J876" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K876" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -29963,7 +30471,9 @@
         <v>0</v>
       </c>
       <c r="I877" t="inlineStr"/>
-      <c r="J877" t="inlineStr"/>
+      <c r="J877" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K877" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30000,7 +30510,9 @@
         <v>0</v>
       </c>
       <c r="I878" t="inlineStr"/>
-      <c r="J878" t="inlineStr"/>
+      <c r="J878" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K878" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30037,7 +30549,9 @@
         <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
-      <c r="J879" t="inlineStr"/>
+      <c r="J879" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K879" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30074,7 +30588,9 @@
         <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
-      <c r="J880" t="inlineStr"/>
+      <c r="J880" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K880" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30111,7 +30627,9 @@
         <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
-      <c r="J881" t="inlineStr"/>
+      <c r="J881" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K881" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30148,7 +30666,9 @@
         <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
-      <c r="J882" t="inlineStr"/>
+      <c r="J882" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K882" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30185,7 +30705,9 @@
         <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
-      <c r="J883" t="inlineStr"/>
+      <c r="J883" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K883" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30222,7 +30744,9 @@
         <v>0</v>
       </c>
       <c r="I884" t="inlineStr"/>
-      <c r="J884" t="inlineStr"/>
+      <c r="J884" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K884" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30259,7 +30783,9 @@
         <v>0</v>
       </c>
       <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
+      <c r="J885" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K885" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30296,7 +30822,9 @@
         <v>0</v>
       </c>
       <c r="I886" t="inlineStr"/>
-      <c r="J886" t="inlineStr"/>
+      <c r="J886" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K886" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30333,7 +30861,9 @@
         <v>0</v>
       </c>
       <c r="I887" t="inlineStr"/>
-      <c r="J887" t="inlineStr"/>
+      <c r="J887" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K887" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30370,7 +30900,9 @@
         <v>0</v>
       </c>
       <c r="I888" t="inlineStr"/>
-      <c r="J888" t="inlineStr"/>
+      <c r="J888" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K888" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30407,7 +30939,9 @@
         <v>0</v>
       </c>
       <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
+      <c r="J889" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K889" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30444,7 +30978,9 @@
         <v>0</v>
       </c>
       <c r="I890" t="inlineStr"/>
-      <c r="J890" t="inlineStr"/>
+      <c r="J890" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K890" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30481,7 +31017,9 @@
         <v>0</v>
       </c>
       <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
+      <c r="J891" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K891" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30518,7 +31056,9 @@
         <v>0</v>
       </c>
       <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
+      <c r="J892" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K892" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30555,7 +31095,9 @@
         <v>0</v>
       </c>
       <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
+      <c r="J893" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K893" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30592,7 +31134,9 @@
         <v>0</v>
       </c>
       <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
+      <c r="J894" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K894" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30629,7 +31173,9 @@
         <v>0</v>
       </c>
       <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
+      <c r="J895" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K895" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30666,7 +31212,9 @@
         <v>0</v>
       </c>
       <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
+      <c r="J896" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K896" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30703,7 +31251,9 @@
         <v>0</v>
       </c>
       <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
+      <c r="J897" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K897" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30740,7 +31290,9 @@
         <v>0</v>
       </c>
       <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
+      <c r="J898" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K898" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30777,7 +31329,9 @@
         <v>0</v>
       </c>
       <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
+      <c r="J899" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K899" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30814,7 +31368,9 @@
         <v>0</v>
       </c>
       <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
+      <c r="J900" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K900" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30851,7 +31407,9 @@
         <v>0</v>
       </c>
       <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
+      <c r="J901" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K901" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30888,7 +31446,9 @@
         <v>0</v>
       </c>
       <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
+      <c r="J902" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K902" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30925,7 +31485,9 @@
         <v>0</v>
       </c>
       <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
+      <c r="J903" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K903" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30962,7 +31524,9 @@
         <v>0</v>
       </c>
       <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
+      <c r="J904" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K904" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -30999,7 +31563,9 @@
         <v>0</v>
       </c>
       <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
+      <c r="J905" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K905" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31036,7 +31602,9 @@
         <v>0</v>
       </c>
       <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
+      <c r="J906" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K906" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31073,7 +31641,9 @@
         <v>0</v>
       </c>
       <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
+      <c r="J907" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K907" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31110,7 +31680,9 @@
         <v>0</v>
       </c>
       <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
+      <c r="J908" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K908" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31147,7 +31719,9 @@
         <v>0</v>
       </c>
       <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
+      <c r="J909" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K909" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31184,7 +31758,9 @@
         <v>0</v>
       </c>
       <c r="I910" t="inlineStr"/>
-      <c r="J910" t="inlineStr"/>
+      <c r="J910" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K910" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31221,7 +31797,9 @@
         <v>0</v>
       </c>
       <c r="I911" t="inlineStr"/>
-      <c r="J911" t="inlineStr"/>
+      <c r="J911" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K911" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31258,7 +31836,9 @@
         <v>0</v>
       </c>
       <c r="I912" t="inlineStr"/>
-      <c r="J912" t="inlineStr"/>
+      <c r="J912" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K912" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31295,7 +31875,9 @@
         <v>0</v>
       </c>
       <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
+      <c r="J913" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K913" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31332,7 +31914,9 @@
         <v>0</v>
       </c>
       <c r="I914" t="inlineStr"/>
-      <c r="J914" t="inlineStr"/>
+      <c r="J914" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K914" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31369,7 +31953,9 @@
         <v>0</v>
       </c>
       <c r="I915" t="inlineStr"/>
-      <c r="J915" t="inlineStr"/>
+      <c r="J915" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K915" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31406,7 +31992,9 @@
         <v>0</v>
       </c>
       <c r="I916" t="inlineStr"/>
-      <c r="J916" t="inlineStr"/>
+      <c r="J916" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K916" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31443,7 +32031,9 @@
         <v>0</v>
       </c>
       <c r="I917" t="inlineStr"/>
-      <c r="J917" t="inlineStr"/>
+      <c r="J917" t="n">
+        <v>3.115</v>
+      </c>
       <c r="K917" t="inlineStr">
         <is>
           <t>매도 대기</t>
